--- a/Nrust.xlsx
+++ b/Nrust.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\электропроводность\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IlyaYukhnovskiy\Documents\электропроводность\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33B5E35F-6DCB-4494-BA82-00A2B7DA5D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C831867-EE3E-4EF7-8773-A1B3C07AE4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5112" yWindow="3372" windowWidth="17280" windowHeight="8964" xr2:uid="{DD972F4E-27B2-43BF-A696-C1F3B8571CCB}"/>
+    <workbookView xWindow="4656" yWindow="1656" windowWidth="17280" windowHeight="8964" xr2:uid="{DD972F4E-27B2-43BF-A696-C1F3B8571CCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +62,11 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -80,18 +85,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{6AD744C5-1C34-4009-8A7D-55C7A8640748}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -405,5942 +416,5942 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A70397-2404-41D0-981D-A38CCA775069}">
   <dimension ref="A1:E365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:E365"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="H355" sqref="H355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2">
+      <c r="A1" s="7"/>
+      <c r="B1" s="6">
         <v>101.8914774981971</v>
       </c>
       <c r="C1" s="3">
         <v>129</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="3">
+      <c r="D1" s="1"/>
+      <c r="E1" s="4">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="6">
         <v>100.74980430847975</v>
       </c>
       <c r="C2" s="3">
         <v>116</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3">
+      <c r="D2" s="1"/>
+      <c r="E2" s="4">
         <v>72.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6">
         <v>99.608131118762415</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>95</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3">
+      <c r="D3" s="1"/>
+      <c r="E3" s="4">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6">
         <v>98.466457929045077</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>91</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3">
+      <c r="D4" s="1"/>
+      <c r="E4" s="4">
         <v>65.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="6">
         <v>97.324784739327725</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>99.5</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3">
+      <c r="D5" s="1"/>
+      <c r="E5" s="4">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6">
         <v>96.183111549610388</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>108</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3">
+      <c r="D6" s="1"/>
+      <c r="E6" s="4">
         <v>52.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="6">
         <v>95.04143835989305</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>98</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3">
+      <c r="D7" s="1"/>
+      <c r="E7" s="4">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="6">
         <v>93.899765170175698</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>88</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3">
+      <c r="D8" s="1"/>
+      <c r="E8" s="4">
         <v>47.75</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6">
         <v>92.75809198045836</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>78</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3">
+      <c r="D9" s="1"/>
+      <c r="E9" s="4">
         <v>49.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6">
         <v>91.616418790741022</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>79.666666666666671</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3">
+      <c r="D10" s="1"/>
+      <c r="E10" s="4">
         <v>51.25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6">
         <v>90.47474560102367</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>81.333333333333329</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3">
+      <c r="D11" s="1"/>
+      <c r="E11" s="4">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6">
         <v>89.333072411306347</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>83</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3">
+      <c r="D12" s="1"/>
+      <c r="E12" s="4">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6">
         <v>88.191399221588995</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>86</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3">
+      <c r="D13" s="1"/>
+      <c r="E13" s="4">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6">
         <v>87.049726031871657</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>89</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3">
+      <c r="D14" s="1"/>
+      <c r="E14" s="4">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6">
         <v>85.908052842154319</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>83.75</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3">
+      <c r="D15" s="1"/>
+      <c r="E15" s="4">
         <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6">
         <v>84.766379652436967</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>78.5</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3">
+      <c r="D16" s="1"/>
+      <c r="E16" s="4">
         <v>67.25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="6">
         <v>83.624706462719629</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>73.25</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3">
+      <c r="D17" s="1"/>
+      <c r="E17" s="4">
         <v>69.5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="6">
         <v>82.483033273002292</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <v>68</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3">
+      <c r="D18" s="1"/>
+      <c r="E18" s="4">
         <v>71.75</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6">
         <v>81.34136008328494</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <v>73</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3">
+      <c r="D19" s="1"/>
+      <c r="E19" s="4">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6">
         <v>80.199686893567602</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <v>78</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3">
+      <c r="D20" s="1"/>
+      <c r="E20" s="4">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6">
         <v>79.058013703850264</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>83</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3">
+      <c r="D21" s="1"/>
+      <c r="E21" s="4">
         <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="6">
         <v>77.916340514132912</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4">
         <v>85</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3">
+      <c r="D22" s="1"/>
+      <c r="E22" s="4">
         <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="6">
         <v>76.774667324415589</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <v>87</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3">
+      <c r="D23" s="1"/>
+      <c r="E23" s="4">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="6">
         <v>75.632994134698237</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <v>89</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3">
+      <c r="D24" s="1"/>
+      <c r="E24" s="4">
         <v>91.25</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="6">
         <v>74.491320944980899</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4">
         <v>91</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3">
+      <c r="D25" s="1"/>
+      <c r="E25" s="4">
         <v>88.5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="6">
         <v>73.349647755263561</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="4">
         <v>91.857142857142861</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="3">
+      <c r="D26" s="1"/>
+      <c r="E26" s="4">
         <v>85.75</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="6">
         <v>72.207974565546209</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="4">
         <v>92.714285714285708</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="3">
+      <c r="D27" s="1"/>
+      <c r="E27" s="4">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="6">
         <v>71.066301375828871</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="4">
         <v>93.571428571428569</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="3">
+      <c r="D28" s="1"/>
+      <c r="E28" s="4">
         <v>83.5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="5">
         <v>63.90616238378167</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="4">
         <v>94.428571428571431</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="3">
+      <c r="D29" s="1"/>
+      <c r="E29" s="4">
         <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2">
+      <c r="A30" s="7"/>
+      <c r="B30" s="5">
         <v>68.295824221180098</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="4">
         <v>95.285714285714292</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="3">
+      <c r="D30" s="1"/>
+      <c r="E30" s="4">
         <v>84.5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="5">
         <v>72.738695376009844</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="4">
         <v>96.142857142857139</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="3">
+      <c r="D31" s="1"/>
+      <c r="E31" s="4">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="3">
         <v>80.8</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="4">
         <v>97</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4">
         <v>81.5</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="3">
         <v>80</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="4">
         <v>97.857142857142861</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4">
         <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="3">
         <v>81.333333333333329</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="4">
         <v>98.714285714285708</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="2">
         <v>92</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="4">
         <v>74.5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="3">
         <v>82.666666666666671</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="4">
         <v>99.571428571428569</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="2">
         <v>86</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="4">
         <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="3">
         <v>84</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="4">
         <v>100.42857142857143</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="2">
         <v>80</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="4">
         <v>72.75</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="3">
         <v>86.25</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="4">
         <v>101.28571428571428</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="2">
         <v>83.5</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="4">
         <v>74.5</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="3">
         <v>88.5</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="4">
         <v>102.14285714285714</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="2">
         <v>87</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="4">
         <v>76.25</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="3">
         <v>90.75</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="4">
         <v>103</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="2">
         <v>85.5</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="4">
         <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="3">
         <v>93</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="4">
         <v>103.85714285714286</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="2">
         <v>84</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="4">
         <v>76.5</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="3">
         <v>92.25</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="4">
         <v>104.71428571428571</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="2">
         <v>74</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="4">
         <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="3">
         <v>91.5</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="4">
         <v>105.57142857142857</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="2">
         <v>87.5</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="4">
         <v>73.5</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="3">
         <v>90.75</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="4">
         <v>106.42857142857143</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="2">
         <v>101</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="4">
         <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="3">
         <v>90</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="4">
         <v>107.28571428571428</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="2">
         <v>92.5</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="4">
         <v>69.714285714285722</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="3">
         <v>89.75</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="4">
         <v>108.14285714285714</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="2">
         <v>84</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="4">
         <v>67.428571428571445</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="3">
         <v>89.5</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="4">
         <v>109</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="2">
         <v>77</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="4">
         <v>65.142857142857153</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="3">
         <v>89.25</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="4">
         <v>109.85714285714286</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="2">
         <v>70</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="4">
         <v>62.857142857142861</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="3">
         <v>89</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="4">
         <v>110.71428571428571</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="2">
         <v>76</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="4">
         <v>60.571428571428569</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="3">
         <v>88.771428571428572</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="4">
         <v>111.57142857142857</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="2">
         <v>82</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="4">
         <v>58.285714285714285</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
+      <c r="A50" s="8"/>
       <c r="B50" s="3">
         <v>88.542857142857144</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="4">
         <v>112.42857142857143</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="2">
         <v>84</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="4">
         <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="3">
         <v>88.314285714285717</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="4">
         <v>113.28571428571428</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="2">
         <v>86</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="4">
         <v>57.71428571428573</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
+      <c r="A52" s="8"/>
       <c r="B52" s="3">
         <v>88.085714285714289</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="4">
         <v>114.14285714285714</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="2">
         <v>83</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="4">
         <v>59.428571428571438</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="3">
         <v>87.857142857142861</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="4">
         <v>115</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="2">
         <v>80</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="4">
         <v>61.142857142857153</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="3">
         <v>87.628571428571433</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="4">
         <v>115.85714285714286</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="2">
         <v>79.5</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="4">
         <v>62.857142857142861</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="3">
         <v>87.4</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="4">
         <v>116.71428571428571</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="2">
         <v>79</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="4">
         <v>64.571428571428569</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
+      <c r="A56" s="8"/>
       <c r="B56" s="3">
         <v>87.171428571428578</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="4">
         <v>117.57142857142857</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="2">
         <v>76.5</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="4">
         <v>66.285714285714278</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
+      <c r="A57" s="8"/>
       <c r="B57" s="3">
         <v>86.94285714285715</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="4">
         <v>118.42857142857143</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="2">
         <v>74</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="4">
         <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
+      <c r="A58" s="8"/>
       <c r="B58" s="3">
         <v>86.714285714285708</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="4">
         <v>119.28571428571428</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="2">
         <v>65</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="4">
         <v>68.307692307692307</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
+      <c r="A59" s="8"/>
       <c r="B59" s="3">
         <v>86.48571428571428</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="4">
         <v>120.14285714285714</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="2">
         <v>56</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="4">
         <v>68.615384615384613</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="3">
         <v>86.257142857142853</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="4">
         <v>121</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="2">
         <v>59.5</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="4">
         <v>68.92307692307692</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="3">
         <v>86.028571428571425</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="4">
         <v>121.85714285714286</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="2">
         <v>63</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="4">
         <v>69.230769230769226</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
+      <c r="A62" s="8"/>
       <c r="B62" s="3">
         <v>85.8</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="4">
         <v>122.71428571428571</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="2">
         <v>65.833333333333329</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="4">
         <v>69.538461538461533</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="3">
         <v>85.571428571428569</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="4">
         <v>123.57142857142857</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="2">
         <v>68.666666666666671</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="4">
         <v>69.84615384615384</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
+      <c r="A64" s="8"/>
       <c r="B64" s="3">
         <v>85.342857142857142</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="4">
         <v>124.42857142857142</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="2">
         <v>71.5</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="4">
         <v>70.15384615384616</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
+      <c r="A65" s="8"/>
       <c r="B65" s="3">
         <v>85.114285714285714</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="4">
         <v>125.28571428571428</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="2">
         <v>74.333333333333329</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="4">
         <v>70.461538461538467</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
+      <c r="A66" s="8"/>
       <c r="B66" s="3">
         <v>84.885714285714286</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="4">
         <v>126.14285714285714</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="2">
         <v>77.166666666666671</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="4">
         <v>70.769230769230774</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
+      <c r="A67" s="8"/>
       <c r="B67" s="3">
         <v>84.657142857142858</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="4">
         <v>127</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="2">
         <v>80</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="4">
         <v>71.07692307692308</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="3">
         <v>84.428571428571431</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="4">
         <v>127.85714285714286</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="2">
         <v>81</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="4">
         <v>71.384615384615387</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
+      <c r="A69" s="8"/>
       <c r="B69" s="3">
         <v>84.2</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="4">
         <v>128.71428571428572</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="2">
         <v>82</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="4">
         <v>71.692307692307693</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="3">
         <v>83.971428571428575</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="4">
         <v>129.57142857142856</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="2">
         <v>51</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="4">
         <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
+      <c r="A71" s="8"/>
       <c r="B71" s="3">
         <v>83.742857142857147</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="4">
         <v>130.42857142857142</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="2">
         <v>20</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="4">
         <v>72.307692307692307</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
+      <c r="A72" s="8"/>
       <c r="B72" s="3">
         <v>83.51428571428572</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="4">
         <v>131.28571428571428</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="2">
         <v>33</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="4">
         <v>72.615384615384613</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
+      <c r="A73" s="8"/>
       <c r="B73" s="3">
         <v>83.285714285714292</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="4">
         <v>132.14285714285714</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="2">
         <v>46</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="4">
         <v>72.92307692307692</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
+      <c r="A74" s="8"/>
       <c r="B74" s="3">
         <v>83.05714285714285</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="4">
         <v>133</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="2">
         <v>30</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="4">
         <v>73.230769230769226</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
+      <c r="A75" s="8"/>
       <c r="B75" s="3">
         <v>82.828571428571422</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="4">
         <v>133.85714285714286</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="2">
         <v>14</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="4">
         <v>73.538461538461533</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
+      <c r="A76" s="8"/>
       <c r="B76" s="3">
         <v>82.6</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="4">
         <v>134.71428571428572</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="2">
         <v>23</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="4">
         <v>73.84615384615384</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
+      <c r="A77" s="8"/>
       <c r="B77" s="3">
         <v>82.371428571428567</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="4">
         <v>135.57142857142856</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="2">
         <v>32</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="4">
         <v>74.153846153846146</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
+      <c r="A78" s="8"/>
       <c r="B78" s="3">
         <v>82.142857142857139</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="4">
         <v>136.42857142857142</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="2">
         <v>41</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="4">
         <v>74.461538461538453</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
+      <c r="A79" s="8"/>
       <c r="B79" s="3">
         <v>81.914285714285711</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="4">
         <v>137.28571428571428</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="2">
         <v>50</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="4">
         <v>74.769230769230774</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="A80" s="6">
         <v>183.333333333333</v>
       </c>
       <c r="B80" s="3">
         <v>81.685714285714283</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="4">
         <v>138.14285714285714</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="2">
         <v>64</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="4">
         <v>75.07692307692308</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+      <c r="A81" s="6">
         <v>182.222222222222</v>
       </c>
       <c r="B81" s="3">
         <v>81.457142857142856</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="4">
         <v>139</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="2">
         <v>78</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="4">
         <v>75.384615384615387</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+      <c r="A82" s="6">
         <v>181.111111111111</v>
       </c>
       <c r="B82" s="3">
         <v>81.228571428571428</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="4">
         <v>139.85714285714286</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="2">
         <v>59.5</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="4">
         <v>75.692307692307693</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+      <c r="A83" s="6">
         <v>180</v>
       </c>
       <c r="B83" s="3">
         <v>81</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="4">
         <v>140.71428571428572</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="2">
         <v>41</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="4">
         <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+      <c r="A84" s="6">
         <v>178.88888888888889</v>
       </c>
       <c r="B84" s="3">
         <v>80.771428571428572</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="4">
         <v>141.57142857142856</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="2">
         <v>52.5</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="4">
         <v>76.307692307692307</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+      <c r="A85" s="6">
         <v>177.77777777777777</v>
       </c>
       <c r="B85" s="3">
         <v>80.542857142857144</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="4">
         <v>142.42857142857142</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="2">
         <v>64</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="4">
         <v>76.615384615384613</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+      <c r="A86" s="6">
         <v>176.66666666666666</v>
       </c>
       <c r="B86" s="3">
         <v>80.314285714285717</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="4">
         <v>143.28571428571428</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="2">
         <v>75.5</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="4">
         <v>76.92307692307692</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+      <c r="A87" s="6">
         <v>175.55555555555554</v>
       </c>
       <c r="B87" s="3">
         <v>80.085714285714289</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="4">
         <v>144.14285714285714</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="2">
         <v>87</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="4">
         <v>77.230769230769226</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+      <c r="A88" s="6">
         <v>174.44444444444446</v>
       </c>
       <c r="B88" s="3">
         <v>79.857142857142861</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="4">
         <v>145</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="2">
         <v>69</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="4">
         <v>77.538461538461533</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+      <c r="A89" s="6">
         <v>173.33333333333334</v>
       </c>
       <c r="B89" s="3">
         <v>79.628571428571433</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="4">
         <v>148.71428571428572</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="2">
         <v>51</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="4">
         <v>77.84615384615384</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+      <c r="A90" s="6">
         <v>172.22222222222223</v>
       </c>
       <c r="B90" s="3">
         <v>79.400000000000006</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="4">
         <v>152.42857142857142</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="2">
         <v>42</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="4">
         <v>78.153846153846146</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+      <c r="A91" s="6">
         <v>171.11111111111111</v>
       </c>
       <c r="B91" s="3">
         <v>79.171428571428578</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="4">
         <v>156.14285714285714</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="2">
         <v>33</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="4">
         <v>78.461538461538453</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+      <c r="A92" s="6">
         <v>170</v>
       </c>
       <c r="B92" s="3">
         <v>78.94285714285715</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="4">
         <v>159.85714285714286</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="2">
         <v>41</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="4">
         <v>78.769230769230759</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
+      <c r="A93" s="6">
         <v>155.71428571428572</v>
       </c>
       <c r="B93" s="3">
         <v>78.714285714285722</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="4">
         <v>163.57142857142858</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="2">
         <v>49</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="4">
         <v>79.076923076923066</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
+      <c r="A94" s="6">
         <v>141.42857142857142</v>
       </c>
       <c r="B94" s="3">
         <v>78.48571428571428</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="4">
         <v>167.28571428571428</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="2">
         <v>40.5</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="4">
         <v>79.384615384615387</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
+      <c r="A95" s="6">
         <v>127.14285714285714</v>
       </c>
       <c r="B95" s="3">
         <v>78.257142857142853</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="4">
         <v>171</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="2">
         <v>32</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="4">
         <v>79.692307692307693</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
+      <c r="A96" s="6">
         <v>112.85714285714286</v>
       </c>
       <c r="B96" s="3">
         <v>78.028571428571425</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="4">
         <v>164</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="2">
         <v>23.5</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="4">
         <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
+      <c r="A97" s="6">
         <v>98.571428571428569</v>
       </c>
       <c r="B97" s="3">
         <v>77.8</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="4">
         <v>157</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="2">
         <v>15</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="4">
         <v>78.571428571428555</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
+      <c r="A98" s="6">
         <v>84.285714285714278</v>
       </c>
       <c r="B98" s="3">
         <v>77.571428571428569</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="4">
         <v>156.57142857142858</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="2">
         <v>18</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="4">
         <v>77.142857142857139</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
+      <c r="A99" s="6">
         <v>70</v>
       </c>
       <c r="B99" s="3">
         <v>77.342857142857142</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="4">
         <v>156.14285714285714</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D99" s="2">
         <v>21</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="4">
         <v>75.714285714285708</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
+      <c r="A100" s="6">
         <v>76.666666666666671</v>
       </c>
       <c r="B100" s="3">
         <v>77.114285714285714</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="4">
         <v>155.71428571428572</v>
       </c>
-      <c r="D100" s="4">
+      <c r="D100" s="2">
         <v>16</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="4">
         <v>74.285714285714278</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
+      <c r="A101" s="6">
         <v>83.333333333333329</v>
       </c>
       <c r="B101" s="3">
         <v>76.885714285714286</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="4">
         <v>155.28571428571428</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D101" s="2">
         <v>11</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="4">
         <v>72.857142857142847</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
+      <c r="A102" s="6">
         <v>90</v>
       </c>
       <c r="B102" s="3">
         <v>76.657142857142858</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="4">
         <v>154.85714285714286</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="2">
         <v>12.5</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="4">
         <v>71.428571428571416</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
+      <c r="A103" s="6">
         <v>96.666666666666671</v>
       </c>
       <c r="B103" s="3">
         <v>76.428571428571431</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="4">
         <v>154.42857142857142</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="2">
         <v>14</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103" s="4">
         <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
+      <c r="A104" s="6">
         <v>103.33333333333334</v>
       </c>
       <c r="B104" s="3">
         <v>76.2</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="4">
         <v>154</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="2">
         <v>51.5</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104" s="4">
         <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
+      <c r="A105" s="6">
         <v>110</v>
       </c>
       <c r="B105" s="3">
         <v>75.971428571428575</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="4">
         <v>153.57142857142858</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105" s="2">
         <v>89</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="4">
         <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
+      <c r="A106" s="6">
         <v>113.75</v>
       </c>
       <c r="B106" s="3">
         <v>75.742857142857147</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="4">
         <v>153.14285714285714</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D106" s="2">
         <v>72.75</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106" s="4">
         <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
+      <c r="A107" s="6">
         <v>117.5</v>
       </c>
       <c r="B107" s="3">
         <v>75.51428571428572</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="4">
         <v>152.71428571428572</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D107" s="2">
         <v>56.5</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107" s="4">
         <v>70</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
+      <c r="A108" s="6">
         <v>121.25</v>
       </c>
       <c r="B108" s="3">
         <v>75.285714285714292</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="4">
         <v>152.28571428571428</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D108" s="2">
         <v>40.25</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108" s="4">
         <v>70</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
+      <c r="A109" s="6">
         <v>125</v>
       </c>
       <c r="B109" s="3">
         <v>75.05714285714285</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="4">
         <v>151.85714285714286</v>
       </c>
-      <c r="D109" s="4">
+      <c r="D109" s="2">
         <v>24</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109" s="4">
         <v>70</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
+      <c r="A110" s="6">
         <v>128.75</v>
       </c>
       <c r="B110" s="3">
         <v>74.828571428571422</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="4">
         <v>151.42857142857142</v>
       </c>
-      <c r="D110" s="4">
+      <c r="D110" s="2">
         <v>34.5</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110" s="4">
         <v>70</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
+      <c r="A111" s="6">
         <v>132.5</v>
       </c>
       <c r="B111" s="3">
         <v>74.599999999999994</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="4">
         <v>151</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D111" s="2">
         <v>45</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111" s="4">
         <v>70</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
+      <c r="A112" s="6">
         <v>136.25</v>
       </c>
       <c r="B112" s="3">
         <v>74.371428571428567</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="4">
         <v>151</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="2">
         <v>37.5</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112" s="4">
         <v>70</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
+      <c r="A113" s="6">
         <v>140</v>
       </c>
       <c r="B113" s="3">
         <v>74.142857142857139</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="4">
         <v>151</v>
       </c>
-      <c r="D113" s="4">
+      <c r="D113" s="2">
         <v>30</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113" s="4">
         <v>70</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
+      <c r="A114" s="6">
         <v>145</v>
       </c>
       <c r="B114" s="3">
         <v>73.914285714285711</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="4">
         <v>151</v>
       </c>
-      <c r="D114" s="4">
+      <c r="D114" s="2">
         <v>23</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114" s="4">
         <v>70</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
+      <c r="A115" s="6">
         <v>150</v>
       </c>
       <c r="B115" s="3">
         <v>73.685714285714283</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="4">
         <v>151</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D115" s="2">
         <v>16</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115" s="4">
         <v>70</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
+      <c r="A116" s="6">
         <v>155</v>
       </c>
       <c r="B116" s="3">
         <v>73.457142857142856</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="4">
         <v>151</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D116" s="2">
         <v>28</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116" s="4">
         <v>70</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
+      <c r="A117" s="6">
         <v>160</v>
       </c>
       <c r="B117" s="3">
         <v>73.228571428571428</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="4">
         <v>149.33333333333334</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D117" s="2">
         <v>40</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117" s="4">
         <v>70</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
+      <c r="A118" s="6">
         <v>165</v>
       </c>
       <c r="B118" s="3">
         <v>73</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="4">
         <v>147.66666666666666</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D118" s="2">
         <v>55.5</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118" s="4">
         <v>68.333333333333329</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
+      <c r="A119" s="6">
         <v>170</v>
       </c>
       <c r="B119" s="3">
         <v>72.666666666666671</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="4">
         <v>146</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D119" s="2">
         <v>71</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E119" s="4">
         <v>66.666666666666657</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
+      <c r="A120" s="6">
         <v>175</v>
       </c>
       <c r="B120" s="3">
         <v>72.333333333333329</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="4">
         <v>116.75</v>
       </c>
-      <c r="D120" s="4">
+      <c r="D120" s="2">
         <v>52</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120" s="4">
         <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
+      <c r="A121" s="6">
         <v>180</v>
       </c>
       <c r="B121" s="3">
         <v>72</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="4">
         <v>87.5</v>
       </c>
-      <c r="D121" s="4">
+      <c r="D121" s="2">
         <v>33</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E121" s="4">
         <v>63.333333333333329</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
+      <c r="A122" s="6">
         <v>185</v>
       </c>
       <c r="B122" s="3">
         <v>66.5</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="4">
         <v>58.25</v>
       </c>
-      <c r="D122" s="4">
+      <c r="D122" s="2">
         <v>34</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E122" s="4">
         <v>61.666666666666664</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="2">
+      <c r="A123" s="6">
         <v>190</v>
       </c>
       <c r="B123" s="3">
         <v>61</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="4">
         <v>29</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D123" s="2">
         <v>35</v>
       </c>
-      <c r="E123" s="3">
+      <c r="E123" s="4">
         <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="2">
+      <c r="A124" s="6">
         <v>195</v>
       </c>
       <c r="B124" s="3">
         <v>55.5</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="4">
         <v>52.571428571428569</v>
       </c>
-      <c r="D124" s="4">
+      <c r="D124" s="2">
         <v>73</v>
       </c>
-      <c r="E124" s="3">
+      <c r="E124" s="4">
         <v>58.333333333333329</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
+      <c r="A125" s="6">
         <v>200</v>
       </c>
       <c r="B125" s="3">
         <v>50</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="4">
         <v>76.142857142857139</v>
       </c>
-      <c r="D125" s="4">
+      <c r="D125" s="2">
         <v>111</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E125" s="4">
         <v>56.666666666666664</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
+      <c r="A126" s="6">
         <v>205</v>
       </c>
       <c r="B126" s="3">
         <v>44.5</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="4">
         <v>99.714285714285722</v>
       </c>
-      <c r="D126" s="4">
+      <c r="D126" s="2">
         <v>75</v>
       </c>
-      <c r="E126" s="3">
+      <c r="E126" s="4">
         <v>55</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
+      <c r="A127" s="6">
         <v>210</v>
       </c>
       <c r="B127" s="3">
         <v>39</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127" s="4">
         <v>123.28571428571429</v>
       </c>
-      <c r="D127" s="4">
+      <c r="D127" s="2">
         <v>39</v>
       </c>
-      <c r="E127" s="3">
+      <c r="E127" s="4">
         <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
+      <c r="A128" s="6">
         <v>215</v>
       </c>
       <c r="B128" s="3">
         <v>32.799999999999997</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="4">
         <v>146.85714285714286</v>
       </c>
-      <c r="D128" s="4">
+      <c r="D128" s="2">
         <v>39</v>
       </c>
-      <c r="E128" s="3">
+      <c r="E128" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="2">
+      <c r="A129" s="6">
         <v>220</v>
       </c>
       <c r="B129" s="3">
         <v>26.6</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="4">
         <v>170.42857142857144</v>
       </c>
-      <c r="D129" s="4">
+      <c r="D129" s="2">
         <v>39</v>
       </c>
-      <c r="E129" s="3">
+      <c r="E129" s="4">
         <v>9.9999999999999911</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="2">
+      <c r="A130" s="6">
         <v>225</v>
       </c>
       <c r="B130" s="3">
         <v>20.399999999999999</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="4">
         <v>194</v>
       </c>
-      <c r="D130" s="4">
+      <c r="D130" s="2">
         <v>39</v>
       </c>
-      <c r="E130" s="3">
+      <c r="E130" s="4">
         <v>7.3333333333333277</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="2">
+      <c r="A131" s="6">
         <v>230</v>
       </c>
       <c r="B131" s="3">
         <v>14.2</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="4">
         <v>154.66666666666666</v>
       </c>
-      <c r="D131" s="4">
+      <c r="D131" s="2">
         <v>39</v>
       </c>
-      <c r="E131" s="3">
+      <c r="E131" s="4">
         <v>4.6666666666666643</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="2">
+      <c r="A132" s="6">
         <v>235</v>
       </c>
       <c r="B132" s="3">
         <v>8</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="4">
         <v>115.33333333333333</v>
       </c>
-      <c r="D132" s="4">
+      <c r="D132" s="2">
         <v>38</v>
       </c>
-      <c r="E132" s="3">
+      <c r="E132" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="2">
+      <c r="A133" s="6">
         <v>240</v>
       </c>
       <c r="B133" s="3">
         <v>24</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133" s="4">
         <v>76</v>
       </c>
-      <c r="D133" s="4">
+      <c r="D133" s="2">
         <v>37</v>
       </c>
-      <c r="E133" s="3">
+      <c r="E133" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="2">
+      <c r="A134" s="6">
         <v>237.67441860465115</v>
       </c>
       <c r="B134" s="3">
         <v>40</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="4">
         <v>68.5</v>
       </c>
-      <c r="D134" s="4">
+      <c r="D134" s="2">
         <v>36</v>
       </c>
-      <c r="E134" s="3">
+      <c r="E134" s="4">
         <v>20.2</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="2">
+      <c r="A135" s="6">
         <v>235.34883720930233</v>
       </c>
       <c r="B135" s="3">
         <v>34.5</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="4">
         <v>61</v>
       </c>
-      <c r="D135" s="4">
+      <c r="D135" s="2">
         <v>33.5</v>
       </c>
-      <c r="E135" s="3">
+      <c r="E135" s="4">
         <v>19.399999999999999</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="2">
+      <c r="A136" s="6">
         <v>233.02325581395348</v>
       </c>
       <c r="B136" s="3">
         <v>29</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="4">
         <v>53.5</v>
       </c>
-      <c r="D136" s="4">
+      <c r="D136" s="2">
         <v>31</v>
       </c>
-      <c r="E136" s="3">
+      <c r="E136" s="4">
         <v>18.600000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="2">
+      <c r="A137" s="6">
         <v>230.69767441860466</v>
       </c>
       <c r="B137" s="3">
         <v>30.333333333333332</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="4">
         <v>46</v>
       </c>
-      <c r="D137" s="4">
+      <c r="D137" s="2">
         <v>31.5</v>
       </c>
-      <c r="E137" s="3">
+      <c r="E137" s="4">
         <v>17.8</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="2">
+      <c r="A138" s="6">
         <v>228.37209302325581</v>
       </c>
       <c r="B138" s="3">
         <v>31.666666666666668</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="4">
         <v>45</v>
       </c>
-      <c r="D138" s="4">
+      <c r="D138" s="2">
         <v>32</v>
       </c>
-      <c r="E138" s="3">
+      <c r="E138" s="4">
         <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="2">
+      <c r="A139" s="6">
         <v>226.04651162790697</v>
       </c>
       <c r="B139" s="3">
         <v>33</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="4">
         <v>42.5</v>
       </c>
-      <c r="D139" s="4">
+      <c r="D139" s="2">
         <v>35</v>
       </c>
-      <c r="E139" s="3">
+      <c r="E139" s="4">
         <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="2">
+      <c r="A140" s="6">
         <v>223.72093023255815</v>
       </c>
       <c r="B140" s="3">
         <v>34.5</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="4">
         <v>40</v>
       </c>
-      <c r="D140" s="4">
+      <c r="D140" s="2">
         <v>38</v>
       </c>
-      <c r="E140" s="3">
+      <c r="E140" s="4">
         <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="2">
+      <c r="A141" s="6">
         <v>221.3953488372093</v>
       </c>
       <c r="B141" s="3">
         <v>36</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="4">
         <v>38.5</v>
       </c>
-      <c r="D141" s="4">
+      <c r="D141" s="2">
         <v>31.5</v>
       </c>
-      <c r="E141" s="3">
+      <c r="E141" s="4">
         <v>16.666666666666668</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="2">
+      <c r="A142" s="6">
         <v>219.06976744186045</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="4">
         <v>37</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="4">
         <v>37</v>
       </c>
-      <c r="D142" s="4">
+      <c r="D142" s="2">
         <v>25</v>
       </c>
-      <c r="E142" s="3">
+      <c r="E142" s="4">
         <v>16.333333333333332</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="2">
+      <c r="A143" s="6">
         <v>216.74418604651163</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="4">
         <v>37</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="4">
         <v>35.5</v>
       </c>
-      <c r="D143" s="4">
+      <c r="D143" s="2">
         <v>23</v>
       </c>
-      <c r="E143" s="3">
+      <c r="E143" s="4">
         <v>16</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="2">
+      <c r="A144" s="6">
         <v>214.41860465116278</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="4">
         <v>37</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144" s="4">
         <v>34</v>
       </c>
-      <c r="D144" s="4">
+      <c r="D144" s="2">
         <v>21</v>
       </c>
-      <c r="E144" s="3">
+      <c r="E144" s="4">
         <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="2">
+      <c r="A145" s="6">
         <v>212.09302325581396</v>
       </c>
       <c r="B145" s="3">
         <v>38</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145" s="4">
         <v>33.5</v>
       </c>
-      <c r="D145" s="4">
+      <c r="D145" s="2">
         <v>21</v>
       </c>
-      <c r="E145" s="3">
+      <c r="E145" s="4">
         <v>16</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="2">
+      <c r="A146" s="6">
         <v>209.76744186046511</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="4">
         <v>38</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146" s="4">
         <v>33</v>
       </c>
-      <c r="D146" s="4">
+      <c r="D146" s="2">
         <v>21</v>
       </c>
-      <c r="E146" s="3">
+      <c r="E146" s="4">
         <v>15.5</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="2">
+      <c r="A147" s="6">
         <v>207.44186046511629</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="4">
         <v>40</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147" s="4">
         <v>35</v>
       </c>
-      <c r="D147" s="4">
+      <c r="D147" s="2">
         <v>17</v>
       </c>
-      <c r="E147" s="3">
+      <c r="E147" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="2">
+      <c r="A148" s="6">
         <v>205.11627906976744</v>
       </c>
       <c r="B148" s="3">
         <v>42</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148" s="4">
         <v>35</v>
       </c>
-      <c r="D148" s="4">
+      <c r="D148" s="2">
         <v>13</v>
       </c>
-      <c r="E148" s="3">
+      <c r="E148" s="4">
         <v>15.5</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="2">
+      <c r="A149" s="6">
         <v>202.7906976744186</v>
       </c>
       <c r="B149" s="3">
         <v>43</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149" s="4">
         <v>36</v>
       </c>
-      <c r="D149" s="4">
+      <c r="D149" s="2">
         <v>16</v>
       </c>
-      <c r="E149" s="3">
+      <c r="E149" s="4">
         <v>16</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="2">
+      <c r="A150" s="6">
         <v>200.46511627906978</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="4">
         <v>44</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C150" s="4">
         <v>37</v>
       </c>
-      <c r="D150" s="4">
+      <c r="D150" s="2">
         <v>19</v>
       </c>
-      <c r="E150" s="3">
+      <c r="E150" s="4">
         <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="2">
+      <c r="A151" s="6">
         <v>198.13953488372093</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="4">
         <v>47</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C151" s="4">
         <v>38</v>
       </c>
-      <c r="D151" s="4">
+      <c r="D151" s="2">
         <v>18.5</v>
       </c>
-      <c r="E151" s="3">
+      <c r="E151" s="4">
         <v>16</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="2">
+      <c r="A152" s="6">
         <v>195.81395348837208</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="4">
         <v>50</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152" s="4">
         <v>39</v>
       </c>
-      <c r="D152" s="4">
+      <c r="D152" s="2">
         <v>18</v>
       </c>
-      <c r="E152" s="3">
+      <c r="E152" s="4">
         <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="2">
+      <c r="A153" s="6">
         <v>193.48837209302326</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="4">
         <v>53.333333333333336</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C153" s="4">
         <v>41.5</v>
       </c>
-      <c r="D153" s="4">
+      <c r="D153" s="2">
         <v>21.5</v>
       </c>
-      <c r="E153" s="3">
+      <c r="E153" s="4">
         <v>18</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="2">
+      <c r="A154" s="6">
         <v>191.16279069767441</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="4">
         <v>56.666666666666664</v>
       </c>
-      <c r="C154" s="3">
+      <c r="C154" s="4">
         <v>44</v>
       </c>
-      <c r="D154" s="4">
+      <c r="D154" s="2">
         <v>25</v>
       </c>
-      <c r="E154" s="3">
+      <c r="E154" s="4">
         <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="2">
+      <c r="A155" s="6">
         <v>188.83720930232556</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="4">
         <v>60</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C155" s="4">
         <v>52</v>
       </c>
-      <c r="D155" s="4">
+      <c r="D155" s="2">
         <v>27</v>
       </c>
-      <c r="E155" s="3">
+      <c r="E155" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="2">
+      <c r="A156" s="6">
         <v>186.51162790697674</v>
       </c>
       <c r="B156" s="3">
         <v>62</v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156" s="4">
         <v>54.333333333333336</v>
       </c>
-      <c r="D156" s="4">
+      <c r="D156" s="2">
         <v>29</v>
       </c>
-      <c r="E156" s="3">
+      <c r="E156" s="4">
         <v>21.5</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="2">
+      <c r="A157" s="6">
         <v>184.18604651162792</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="4">
         <v>67</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157" s="4">
         <v>56.666666666666664</v>
       </c>
-      <c r="D157" s="4">
+      <c r="D157" s="2">
         <v>31</v>
       </c>
-      <c r="E157" s="3">
+      <c r="E157" s="4">
         <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="2">
+      <c r="A158" s="6">
         <v>181.86046511627907</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="4">
         <v>73.5</v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158" s="4">
         <v>59</v>
       </c>
-      <c r="D158" s="4">
+      <c r="D158" s="2">
         <v>29</v>
       </c>
-      <c r="E158" s="3">
+      <c r="E158" s="4">
         <v>23.5</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="2">
+      <c r="A159" s="6">
         <v>179.53488372093022</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="4">
         <v>80</v>
       </c>
-      <c r="C159" s="3">
+      <c r="C159" s="4">
         <v>66.666666666666671</v>
       </c>
-      <c r="D159" s="4">
+      <c r="D159" s="2">
         <v>27</v>
       </c>
-      <c r="E159" s="3">
+      <c r="E159" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="2">
+      <c r="A160" s="6">
         <v>177.2093023255814</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="4">
         <v>81.666666666666671</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C160" s="4">
         <v>74.333333333333329</v>
       </c>
-      <c r="D160" s="4">
+      <c r="D160" s="2">
         <v>30</v>
       </c>
-      <c r="E160" s="3">
+      <c r="E160" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="2">
+      <c r="A161" s="6">
         <v>174.88372093023256</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="4">
         <v>83.333333333333329</v>
       </c>
-      <c r="C161" s="3">
+      <c r="C161" s="4">
         <v>82</v>
       </c>
-      <c r="D161" s="4">
+      <c r="D161" s="2">
         <v>33</v>
       </c>
-      <c r="E161" s="3">
+      <c r="E161" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="2">
+      <c r="A162" s="6">
         <v>172.55813953488371</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" s="4">
         <v>85</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C162" s="4">
         <v>89.25</v>
       </c>
-      <c r="D162" s="4">
+      <c r="D162" s="2">
         <v>39</v>
       </c>
-      <c r="E162" s="3">
+      <c r="E162" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="2">
+      <c r="A163" s="6">
         <v>170.23255813953489</v>
       </c>
       <c r="B163" s="3">
         <v>86</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C163" s="4">
         <v>96.5</v>
       </c>
-      <c r="D163" s="4">
+      <c r="D163" s="2">
         <v>45</v>
       </c>
-      <c r="E163" s="3">
+      <c r="E163" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="2">
+      <c r="A164" s="6">
         <v>167.90697674418604</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" s="4">
         <v>92</v>
       </c>
-      <c r="C164" s="3">
+      <c r="C164" s="4">
         <v>103.75</v>
       </c>
-      <c r="D164" s="4">
+      <c r="D164" s="2">
         <v>42</v>
       </c>
-      <c r="E164" s="3">
+      <c r="E164" s="4">
         <v>27</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="2">
+      <c r="A165" s="6">
         <v>165.58139534883719</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="4">
         <v>95.5</v>
       </c>
-      <c r="C165" s="3">
+      <c r="C165" s="4">
         <v>111</v>
       </c>
-      <c r="D165" s="4">
+      <c r="D165" s="2">
         <v>43</v>
       </c>
-      <c r="E165" s="3">
+      <c r="E165" s="4">
         <v>30</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="2">
+      <c r="A166" s="6">
         <v>163.25581395348837</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="4">
         <v>99</v>
       </c>
-      <c r="C166" s="3">
+      <c r="C166" s="4">
         <v>119</v>
       </c>
-      <c r="D166" s="4">
+      <c r="D166" s="2">
         <v>52.5</v>
       </c>
-      <c r="E166" s="3">
+      <c r="E166" s="4">
         <v>33</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="2">
+      <c r="A167" s="6">
         <v>160.93023255813955</v>
       </c>
       <c r="B167" s="3">
         <v>97</v>
       </c>
-      <c r="C167" s="3">
+      <c r="C167" s="4">
         <v>127</v>
       </c>
-      <c r="D167" s="4">
+      <c r="D167" s="2">
         <v>62</v>
       </c>
-      <c r="E167" s="3">
+      <c r="E167" s="4">
         <v>35.5</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="2">
+      <c r="A168" s="6">
         <v>158.60465116279067</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168" s="4">
         <v>98</v>
       </c>
-      <c r="C168" s="3">
+      <c r="C168" s="4">
         <v>127.66666666666667</v>
       </c>
-      <c r="D168" s="4">
+      <c r="D168" s="2">
         <v>63</v>
       </c>
-      <c r="E168" s="3">
+      <c r="E168" s="4">
         <v>38</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="2">
+      <c r="A169" s="6">
         <v>156.27906976744185</v>
       </c>
       <c r="B169" s="3">
         <v>100</v>
       </c>
-      <c r="C169" s="3">
+      <c r="C169" s="4">
         <v>128.33333333333334</v>
       </c>
-      <c r="D169" s="4">
+      <c r="D169" s="2">
         <v>64</v>
       </c>
-      <c r="E169" s="3">
+      <c r="E169" s="4">
         <v>42</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="2">
+      <c r="A170" s="6">
         <v>153.95348837209303</v>
       </c>
       <c r="B170" s="3">
         <v>102</v>
       </c>
-      <c r="C170" s="3">
+      <c r="C170" s="4">
         <v>129</v>
       </c>
-      <c r="D170" s="4">
+      <c r="D170" s="2">
         <v>63.5</v>
       </c>
-      <c r="E170" s="3">
+      <c r="E170" s="4">
         <v>46</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="2">
+      <c r="A171" s="6">
         <v>151.62790697674419</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="4">
         <v>104</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C171" s="4">
         <v>131</v>
       </c>
-      <c r="D171" s="4">
+      <c r="D171" s="2">
         <v>63</v>
       </c>
-      <c r="E171" s="3">
+      <c r="E171" s="4">
         <v>50.666666666666664</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="2">
+      <c r="A172" s="6">
         <v>149.30232558139534</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172" s="4">
         <v>116.5</v>
       </c>
-      <c r="C172" s="3">
+      <c r="C172" s="4">
         <v>133</v>
       </c>
-      <c r="D172" s="4">
+      <c r="D172" s="2">
         <v>64</v>
       </c>
-      <c r="E172" s="3">
+      <c r="E172" s="4">
         <v>55.333333333333329</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="2">
+      <c r="A173" s="6">
         <v>146.97674418604652</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173" s="4">
         <v>129</v>
       </c>
-      <c r="C173" s="3">
+      <c r="C173" s="4">
         <v>136</v>
       </c>
-      <c r="D173" s="4">
+      <c r="D173" s="2">
         <v>71</v>
       </c>
-      <c r="E173" s="3">
+      <c r="E173" s="4">
         <v>60</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="2">
+      <c r="A174" s="6">
         <v>144.65116279069767</v>
       </c>
       <c r="B174" s="3">
         <v>138</v>
       </c>
-      <c r="C174" s="3">
+      <c r="C174" s="4">
         <v>137</v>
       </c>
-      <c r="D174" s="4">
+      <c r="D174" s="2">
         <v>68</v>
       </c>
-      <c r="E174" s="3">
+      <c r="E174" s="4">
         <v>57</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="2">
+      <c r="A175" s="6">
         <v>142.32558139534882</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175" s="4">
         <v>130</v>
       </c>
-      <c r="C175" s="3">
+      <c r="C175" s="4">
         <v>139</v>
       </c>
-      <c r="D175" s="4">
+      <c r="D175" s="2">
         <v>65</v>
       </c>
-      <c r="E175" s="3">
+      <c r="E175" s="4">
         <v>61.666666666666664</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="2">
+      <c r="A176" s="6">
         <v>142</v>
       </c>
       <c r="B176" s="3">
         <v>128</v>
       </c>
-      <c r="C176" s="3">
+      <c r="C176" s="4">
         <v>144</v>
       </c>
-      <c r="D176" s="4">
+      <c r="D176" s="2">
         <v>72</v>
       </c>
-      <c r="E176" s="3">
+      <c r="E176" s="4">
         <v>66.333333333333329</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="2">
+      <c r="A177" s="6">
         <v>150</v>
       </c>
       <c r="B177" s="3">
         <v>135</v>
       </c>
-      <c r="C177" s="3">
+      <c r="C177" s="4">
         <v>147.5</v>
       </c>
-      <c r="D177" s="4">
+      <c r="D177" s="2">
         <v>72</v>
       </c>
-      <c r="E177" s="3">
+      <c r="E177" s="4">
         <v>71</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="2">
+      <c r="A178" s="6">
         <v>145</v>
       </c>
       <c r="B178" s="3">
         <v>131.33333333333334</v>
       </c>
-      <c r="C178" s="3">
+      <c r="C178" s="4">
         <v>151</v>
       </c>
-      <c r="D178" s="4">
+      <c r="D178" s="2">
         <v>77</v>
       </c>
-      <c r="E178" s="3">
+      <c r="E178" s="4">
         <v>71</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="2">
+      <c r="A179" s="6">
         <v>147</v>
       </c>
       <c r="B179" s="3">
         <v>134.66666666666666</v>
       </c>
-      <c r="C179" s="3">
+      <c r="C179" s="4">
         <v>154.5</v>
       </c>
-      <c r="D179" s="4">
+      <c r="D179" s="2">
         <v>78</v>
       </c>
-      <c r="E179" s="3">
+      <c r="E179" s="4">
         <v>71</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="2">
+      <c r="A180" s="6">
         <v>142.5</v>
       </c>
       <c r="B180" s="3">
         <v>138</v>
       </c>
-      <c r="C180" s="3">
+      <c r="C180" s="4">
         <v>158</v>
       </c>
-      <c r="D180" s="4">
+      <c r="D180" s="2">
         <v>76</v>
       </c>
-      <c r="E180" s="3">
+      <c r="E180" s="4">
         <v>72</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="2">
+      <c r="A181" s="6">
         <v>145</v>
       </c>
       <c r="B181" s="3">
         <v>138</v>
       </c>
-      <c r="C181" s="3">
+      <c r="C181" s="4">
         <v>155.5</v>
       </c>
-      <c r="D181" s="4">
+      <c r="D181" s="2">
         <v>79</v>
       </c>
-      <c r="E181" s="3">
+      <c r="E181" s="4">
         <v>74.5</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="2">
+      <c r="A182" s="6">
         <v>147.5</v>
       </c>
       <c r="B182" s="3">
         <v>138</v>
       </c>
-      <c r="C182" s="3">
+      <c r="C182" s="4">
         <v>153</v>
       </c>
-      <c r="D182" s="4">
+      <c r="D182" s="2">
         <v>78</v>
       </c>
-      <c r="E182" s="3">
+      <c r="E182" s="4">
         <v>77</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="2">
+      <c r="A183" s="6">
         <v>142</v>
       </c>
       <c r="B183" s="3">
         <v>138</v>
       </c>
-      <c r="C183" s="3">
+      <c r="C183" s="4">
         <v>152.00192307692308</v>
       </c>
-      <c r="D183" s="4">
+      <c r="D183" s="2">
         <v>78.5</v>
       </c>
-      <c r="E183" s="3">
+      <c r="E183" s="4">
         <v>77.5</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="2">
+      <c r="A184" s="6">
         <v>153</v>
       </c>
       <c r="B184" s="3">
         <v>139</v>
       </c>
-      <c r="C184" s="3">
+      <c r="C184" s="4">
         <v>151.00384615384615</v>
       </c>
-      <c r="D184" s="4">
+      <c r="D184" s="2">
         <v>79</v>
       </c>
-      <c r="E184" s="3">
+      <c r="E184" s="4">
         <v>78</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="2">
+      <c r="A185" s="5">
         <v>157</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185" s="4">
         <v>149</v>
       </c>
-      <c r="C185" s="3">
+      <c r="C185" s="4">
         <v>150.00576923076923</v>
       </c>
-      <c r="D185" s="4">
+      <c r="D185" s="2">
         <v>79.793103448275858</v>
       </c>
-      <c r="E185" s="3">
+      <c r="E185" s="4">
         <v>79.333333333333329</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="2">
+      <c r="A186" s="5">
         <v>157</v>
       </c>
       <c r="B186" s="3">
         <v>150</v>
       </c>
-      <c r="C186" s="3">
+      <c r="C186" s="4">
         <v>149.00769230769231</v>
       </c>
-      <c r="D186" s="4">
+      <c r="D186" s="2">
         <v>80.58620689655173</v>
       </c>
-      <c r="E186" s="3">
+      <c r="E186" s="4">
         <v>80.666666666666671</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="2">
+      <c r="A187" s="6">
         <v>157</v>
       </c>
       <c r="B187" s="3">
         <v>153</v>
       </c>
-      <c r="C187" s="3">
+      <c r="C187" s="4">
         <v>148.00961538461539</v>
       </c>
-      <c r="D187" s="4">
+      <c r="D187" s="2">
         <v>81.379310344827587</v>
       </c>
-      <c r="E187" s="3">
+      <c r="E187" s="4">
         <v>82</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="2">
+      <c r="A188" s="5">
         <v>160</v>
       </c>
       <c r="B188" s="3">
         <v>145.5</v>
       </c>
-      <c r="C188" s="3">
+      <c r="C188" s="4">
         <v>147.01153846153846</v>
       </c>
-      <c r="D188" s="4">
+      <c r="D188" s="2">
         <v>82.172413793103445</v>
       </c>
-      <c r="E188" s="3">
+      <c r="E188" s="4">
         <v>83.666666666666671</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="2">
+      <c r="A189" s="6">
         <v>171</v>
       </c>
       <c r="B189" s="3">
         <v>138</v>
       </c>
-      <c r="C189" s="3">
+      <c r="C189" s="4">
         <v>146.01346153846154</v>
       </c>
-      <c r="D189" s="4">
+      <c r="D189" s="2">
         <v>82.965517241379317</v>
       </c>
-      <c r="E189" s="3">
+      <c r="E189" s="4">
         <v>85.333333333333343</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="2">
+      <c r="A190" s="6">
         <v>173.75</v>
       </c>
       <c r="B190" s="3">
         <v>138</v>
       </c>
-      <c r="C190" s="3">
+      <c r="C190" s="4">
         <v>145.01538461538462</v>
       </c>
-      <c r="D190" s="4">
+      <c r="D190" s="2">
         <v>83.758620689655174</v>
       </c>
-      <c r="E190" s="3">
+      <c r="E190" s="4">
         <v>87</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="2">
+      <c r="A191" s="6">
         <v>176.5</v>
       </c>
       <c r="B191" s="3">
         <v>139</v>
       </c>
-      <c r="C191" s="3">
+      <c r="C191" s="4">
         <v>144.0173076923077</v>
       </c>
-      <c r="D191" s="4">
+      <c r="D191" s="2">
         <v>84.551724137931032</v>
       </c>
-      <c r="E191" s="3">
+      <c r="E191" s="4">
         <v>87.333333333333314</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="2">
+      <c r="A192" s="6">
         <v>179.25</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B192" s="4">
         <v>141</v>
       </c>
-      <c r="C192" s="3">
+      <c r="C192" s="4">
         <v>143.01923076923077</v>
       </c>
-      <c r="D192" s="4">
+      <c r="D192" s="2">
         <v>85.34482758620689</v>
       </c>
-      <c r="E192" s="3">
+      <c r="E192" s="4">
         <v>87.666666666666671</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="2">
+      <c r="A193" s="6">
         <v>182</v>
       </c>
       <c r="B193" s="3">
         <v>140</v>
       </c>
-      <c r="C193" s="3">
+      <c r="C193" s="4">
         <v>142.02115384615385</v>
       </c>
-      <c r="D193" s="4">
+      <c r="D193" s="2">
         <v>86.137931034482762</v>
       </c>
-      <c r="E193" s="3">
+      <c r="E193" s="4">
         <v>88</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="2">
+      <c r="A194" s="5">
         <v>175</v>
       </c>
       <c r="B194" s="3">
         <v>136</v>
       </c>
-      <c r="C194" s="3">
+      <c r="C194" s="4">
         <v>141.02307692307693</v>
       </c>
-      <c r="D194" s="4">
+      <c r="D194" s="2">
         <v>86.931034482758619</v>
       </c>
-      <c r="E194" s="3">
+      <c r="E194" s="4">
         <v>88.666666666666657</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="2">
+      <c r="A195" s="6">
         <v>182</v>
       </c>
       <c r="B195" s="3">
         <v>139.33333333333334</v>
       </c>
-      <c r="C195" s="3">
+      <c r="C195" s="4">
         <v>140.02500000000001</v>
       </c>
-      <c r="D195" s="4">
+      <c r="D195" s="2">
         <v>87.724137931034477</v>
       </c>
-      <c r="E195" s="3">
+      <c r="E195" s="4">
         <v>89.333333333333329</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="2">
+      <c r="A196" s="6">
         <v>171</v>
       </c>
       <c r="B196" s="3">
         <v>142.66666666666666</v>
       </c>
-      <c r="C196" s="3">
+      <c r="C196" s="4">
         <v>139.02692307692308</v>
       </c>
-      <c r="D196" s="4">
+      <c r="D196" s="2">
         <v>88.517241379310349</v>
       </c>
-      <c r="E196" s="3">
+      <c r="E196" s="4">
         <v>90</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="2">
+      <c r="A197" s="6">
         <v>177</v>
       </c>
       <c r="B197" s="3">
         <v>146</v>
       </c>
-      <c r="C197" s="3">
+      <c r="C197" s="4">
         <v>138.02884615384616</v>
       </c>
-      <c r="D197" s="4">
+      <c r="D197" s="2">
         <v>89.310344827586206</v>
       </c>
-      <c r="E197" s="3">
+      <c r="E197" s="4">
         <v>90</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="2">
+      <c r="A198" s="6">
         <v>178</v>
       </c>
       <c r="B198" s="3">
         <v>141</v>
       </c>
-      <c r="C198" s="3">
+      <c r="C198" s="4">
         <v>137.03076923076924</v>
       </c>
-      <c r="D198" s="4">
+      <c r="D198" s="2">
         <v>90.103448275862064</v>
       </c>
-      <c r="E198" s="3">
+      <c r="E198" s="4">
         <v>90</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="2">
+      <c r="A199" s="6">
         <v>184</v>
       </c>
       <c r="B199" s="3">
         <v>146</v>
       </c>
-      <c r="C199" s="3">
+      <c r="C199" s="4">
         <v>136.03269230769232</v>
       </c>
-      <c r="D199" s="4">
+      <c r="D199" s="2">
         <v>90.896551724137936</v>
       </c>
-      <c r="E199" s="3">
+      <c r="E199" s="4">
         <v>90</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="2">
+      <c r="A200" s="6">
         <v>186.5</v>
       </c>
       <c r="B200" s="3">
         <v>151</v>
       </c>
-      <c r="C200" s="3">
+      <c r="C200" s="4">
         <v>135.03461538461539</v>
       </c>
-      <c r="D200" s="4">
+      <c r="D200" s="2">
         <v>91.689655172413794</v>
       </c>
-      <c r="E200" s="3">
+      <c r="E200" s="4">
         <v>90</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="2">
+      <c r="A201" s="6">
         <v>189</v>
       </c>
       <c r="B201" s="3">
         <v>142</v>
       </c>
-      <c r="C201" s="3">
+      <c r="C201" s="4">
         <v>134.03653846153847</v>
       </c>
-      <c r="D201" s="4">
+      <c r="D201" s="2">
         <v>92.482758620689651</v>
       </c>
-      <c r="E201" s="3">
+      <c r="E201" s="4">
         <v>90</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="2">
+      <c r="A202" s="6">
         <v>189.5</v>
       </c>
       <c r="B202" s="3">
         <v>141</v>
       </c>
-      <c r="C202" s="3">
+      <c r="C202" s="4">
         <v>133.03846153846155</v>
       </c>
-      <c r="D202" s="4">
+      <c r="D202" s="2">
         <v>93.275862068965523</v>
       </c>
-      <c r="E202" s="3">
+      <c r="E202" s="4">
         <v>90</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="2">
+      <c r="A203" s="6">
         <v>190</v>
       </c>
       <c r="B203" s="3">
         <v>140</v>
       </c>
-      <c r="C203" s="3">
+      <c r="C203" s="4">
         <v>132.04038461538462</v>
       </c>
-      <c r="D203" s="4">
+      <c r="D203" s="2">
         <v>94.068965517241381</v>
       </c>
-      <c r="E203" s="3">
+      <c r="E203" s="4">
         <v>90</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="2">
+      <c r="A204" s="6">
         <v>190</v>
       </c>
       <c r="B204" s="3">
         <v>141</v>
       </c>
-      <c r="C204" s="3">
+      <c r="C204" s="4">
         <v>131.0423076923077</v>
       </c>
-      <c r="D204" s="4">
+      <c r="D204" s="2">
         <v>94.862068965517238</v>
       </c>
-      <c r="E204" s="3">
+      <c r="E204" s="4">
         <v>88</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="2">
+      <c r="A205" s="6">
         <v>190</v>
       </c>
       <c r="B205" s="3">
         <v>143</v>
       </c>
-      <c r="C205" s="3">
+      <c r="C205" s="4">
         <v>130.04423076923075</v>
       </c>
-      <c r="D205" s="4">
+      <c r="D205" s="2">
         <v>95.65517241379311</v>
       </c>
-      <c r="E205" s="3">
+      <c r="E205" s="4">
         <v>86</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="2">
+      <c r="A206" s="6">
         <v>190</v>
       </c>
       <c r="B206" s="3">
         <v>143</v>
       </c>
-      <c r="C206" s="3">
+      <c r="C206" s="4">
         <v>129.04615384615386</v>
       </c>
-      <c r="D206" s="4">
+      <c r="D206" s="2">
         <v>96.448275862068968</v>
       </c>
-      <c r="E206" s="3">
+      <c r="E206" s="4">
         <v>88</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="2">
+      <c r="A207" s="6">
         <v>200</v>
       </c>
       <c r="B207" s="3">
         <v>146</v>
       </c>
-      <c r="C207" s="3">
+      <c r="C207" s="4">
         <v>128.04807692307691</v>
       </c>
-      <c r="D207" s="4">
+      <c r="D207" s="2">
         <v>97.241379310344826</v>
       </c>
-      <c r="E207" s="3">
+      <c r="E207" s="4">
         <v>90</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="2">
+      <c r="A208" s="6">
         <v>170</v>
       </c>
       <c r="B208" s="3">
         <v>167</v>
       </c>
-      <c r="C208" s="3">
+      <c r="C208" s="4">
         <v>127.05</v>
       </c>
-      <c r="D208" s="4">
+      <c r="D208" s="2">
         <v>98.034482758620697</v>
       </c>
-      <c r="E208" s="3">
+      <c r="E208" s="4">
         <v>92</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="2">
+      <c r="A209" s="6">
         <v>175</v>
       </c>
       <c r="B209" s="3">
         <v>162</v>
       </c>
-      <c r="C209" s="3">
+      <c r="C209" s="4">
         <v>126.05192307692307</v>
       </c>
-      <c r="D209" s="4">
+      <c r="D209" s="2">
         <v>98.827586206896555</v>
       </c>
-      <c r="E209" s="3">
+      <c r="E209" s="4">
         <v>91.5</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="2">
+      <c r="A210" s="6">
         <v>180</v>
       </c>
       <c r="B210" s="3">
         <v>157</v>
       </c>
-      <c r="C210" s="3">
+      <c r="C210" s="4">
         <v>125.05384615384615</v>
       </c>
-      <c r="D210" s="4">
+      <c r="D210" s="2">
         <v>99.620689655172413</v>
       </c>
-      <c r="E210" s="3">
+      <c r="E210" s="4">
         <v>91</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="2">
+      <c r="A211" s="5">
         <v>190</v>
       </c>
       <c r="B211" s="3">
         <v>157.25</v>
       </c>
-      <c r="C211" s="3">
+      <c r="C211" s="4">
         <v>124.05576923076923</v>
       </c>
-      <c r="D211" s="4">
+      <c r="D211" s="2">
         <v>100.41379310344828</v>
       </c>
-      <c r="E211" s="3">
+      <c r="E211" s="4">
         <v>90.666666666666671</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="2">
+      <c r="A212" s="6">
         <v>180</v>
       </c>
       <c r="B212" s="3">
         <v>157.5</v>
       </c>
-      <c r="C212" s="3">
+      <c r="C212" s="4">
         <v>123.05769230769231</v>
       </c>
-      <c r="D212" s="4">
+      <c r="D212" s="2">
         <v>101.20689655172414</v>
       </c>
-      <c r="E212" s="3">
+      <c r="E212" s="4">
         <v>90.333333333333343</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="2">
+      <c r="A213" s="6">
         <v>190</v>
       </c>
       <c r="B213" s="3">
         <v>157.75</v>
       </c>
-      <c r="C213" s="3">
+      <c r="C213" s="4">
         <v>122.05961538461538</v>
       </c>
-      <c r="D213" s="4">
+      <c r="D213" s="2">
         <v>102</v>
       </c>
-      <c r="E213" s="3">
+      <c r="E213" s="4">
         <v>90</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="2">
+      <c r="A214" s="6">
         <v>200</v>
       </c>
       <c r="B214" s="3">
         <v>158</v>
       </c>
-      <c r="C214" s="3">
+      <c r="C214" s="4">
         <v>121.06153846153846</v>
       </c>
-      <c r="D214" s="4">
+      <c r="D214" s="2">
         <v>101.66666666666667</v>
       </c>
-      <c r="E214" s="3">
+      <c r="E214" s="4">
         <v>89.666666666666671</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="2">
+      <c r="A215" s="6">
         <v>190</v>
       </c>
       <c r="B215" s="3">
         <v>158</v>
       </c>
-      <c r="C215" s="3">
+      <c r="C215" s="4">
         <v>120.06346153846152</v>
       </c>
-      <c r="D215" s="4">
+      <c r="D215" s="2">
         <v>101.33333333333333</v>
       </c>
-      <c r="E215" s="3">
+      <c r="E215" s="4">
         <v>89.333333333333343</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="2">
+      <c r="A216" s="6">
         <v>203.5</v>
       </c>
       <c r="B216" s="3">
         <v>158</v>
       </c>
-      <c r="C216" s="3">
+      <c r="C216" s="4">
         <v>119.0653846153846</v>
       </c>
-      <c r="D216" s="4">
+      <c r="D216" s="2">
         <v>101</v>
       </c>
-      <c r="E216" s="3">
+      <c r="E216" s="4">
         <v>89</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="2">
+      <c r="A217" s="6">
         <v>217</v>
       </c>
       <c r="B217" s="3">
         <v>155</v>
       </c>
-      <c r="C217" s="3">
+      <c r="C217" s="4">
         <v>118.06730769230768</v>
       </c>
-      <c r="D217" s="4">
+      <c r="D217" s="2">
         <v>103</v>
       </c>
-      <c r="E217" s="3">
+      <c r="E217" s="4">
         <v>89.333333333333314</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="2">
+      <c r="A218" s="5">
         <v>212</v>
       </c>
       <c r="B218" s="3">
         <v>153</v>
       </c>
-      <c r="C218" s="3">
+      <c r="C218" s="4">
         <v>117.06923076923076</v>
       </c>
-      <c r="D218" s="4">
+      <c r="D218" s="2">
         <v>102.75</v>
       </c>
-      <c r="E218" s="3">
+      <c r="E218" s="4">
         <v>89.666666666666671</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="2">
+      <c r="A219" s="6">
         <v>219</v>
       </c>
       <c r="B219" s="3">
         <v>153</v>
       </c>
-      <c r="C219" s="3">
+      <c r="C219" s="4">
         <v>116.07115384615383</v>
       </c>
-      <c r="D219" s="4">
+      <c r="D219" s="2">
         <v>102.5</v>
       </c>
-      <c r="E219" s="3">
+      <c r="E219" s="4">
         <v>90</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="2">
+      <c r="A220" s="6">
         <v>219</v>
       </c>
       <c r="B220" s="3">
         <v>151</v>
       </c>
-      <c r="C220" s="3">
+      <c r="C220" s="4">
         <v>115.07307692307691</v>
       </c>
-      <c r="D220" s="4">
+      <c r="D220" s="2">
         <v>102.25</v>
       </c>
-      <c r="E220" s="3">
+      <c r="E220" s="4">
         <v>90.5</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="2">
+      <c r="A221" s="6">
         <v>211</v>
       </c>
       <c r="B221" s="3">
         <v>154</v>
       </c>
-      <c r="C221" s="3">
+      <c r="C221" s="4">
         <v>114.075</v>
       </c>
-      <c r="D221" s="4">
+      <c r="D221" s="2">
         <v>102</v>
       </c>
-      <c r="E221" s="3">
+      <c r="E221" s="4">
         <v>91</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" s="2">
+      <c r="A222" s="6">
         <v>208</v>
       </c>
       <c r="B222" s="3">
         <v>157</v>
       </c>
-      <c r="C222" s="3">
+      <c r="C222" s="4">
         <v>113.07692307692307</v>
       </c>
-      <c r="D222" s="4">
+      <c r="D222" s="2">
         <v>102.5</v>
       </c>
-      <c r="E222" s="3">
+      <c r="E222" s="4">
         <v>91</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" s="2">
+      <c r="A223" s="6">
         <v>201</v>
       </c>
       <c r="B223" s="3">
         <v>160</v>
       </c>
-      <c r="C223" s="3">
+      <c r="C223" s="4">
         <v>112.07884615384614</v>
       </c>
-      <c r="D223" s="4">
+      <c r="D223" s="2">
         <v>103</v>
       </c>
-      <c r="E223" s="3">
+      <c r="E223" s="4">
         <v>91</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="2">
+      <c r="A224" s="6">
         <v>203</v>
       </c>
       <c r="B224" s="3">
         <v>167.5</v>
       </c>
-      <c r="C224" s="3">
+      <c r="C224" s="4">
         <v>111.08076923076922</v>
       </c>
-      <c r="D224" s="4">
+      <c r="D224" s="2">
         <v>103</v>
       </c>
-      <c r="E224" s="3">
+      <c r="E224" s="4">
         <v>91</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" s="2">
+      <c r="A225" s="6">
         <v>211</v>
       </c>
       <c r="B225" s="3">
         <v>175</v>
       </c>
-      <c r="C225" s="3">
+      <c r="C225" s="4">
         <v>110.0826923076923</v>
       </c>
-      <c r="D225" s="4">
+      <c r="D225" s="2">
         <v>103</v>
       </c>
-      <c r="E225" s="3">
+      <c r="E225" s="4">
         <v>90.5</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" s="2">
+      <c r="A226" s="6">
         <v>211</v>
       </c>
       <c r="B226" s="3">
         <v>176</v>
       </c>
-      <c r="C226" s="3">
+      <c r="C226" s="4">
         <v>109.08461538461538</v>
       </c>
-      <c r="D226" s="4">
+      <c r="D226" s="2">
         <v>103</v>
       </c>
-      <c r="E226" s="3">
+      <c r="E226" s="4">
         <v>90</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" s="2">
+      <c r="A227" s="6">
         <v>217</v>
       </c>
       <c r="B227" s="3">
         <v>178</v>
       </c>
-      <c r="C227" s="3">
+      <c r="C227" s="4">
         <v>108.08653846153845</v>
       </c>
-      <c r="D227" s="4">
+      <c r="D227" s="2">
         <v>103</v>
       </c>
-      <c r="E227" s="3">
+      <c r="E227" s="4">
         <v>91</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" s="2">
+      <c r="A228" s="6">
         <v>223</v>
       </c>
       <c r="B228" s="3">
         <v>179</v>
       </c>
-      <c r="C228" s="3">
+      <c r="C228" s="4">
         <v>107.08846153846153</v>
       </c>
-      <c r="D228" s="4">
+      <c r="D228" s="2">
         <v>103</v>
       </c>
-      <c r="E228" s="3">
+      <c r="E228" s="4">
         <v>92</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" s="2">
+      <c r="A229" s="6">
         <v>223.5</v>
       </c>
       <c r="B229" s="3">
         <v>180</v>
       </c>
-      <c r="C229" s="3">
+      <c r="C229" s="4">
         <v>106.09038461538461</v>
       </c>
-      <c r="D229" s="4">
+      <c r="D229" s="2">
         <v>103.16666666666667</v>
       </c>
-      <c r="E229" s="3">
+      <c r="E229" s="4">
         <v>91</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230" s="2">
+      <c r="A230" s="6">
         <v>224</v>
       </c>
       <c r="B230" s="3">
         <v>181</v>
       </c>
-      <c r="C230" s="3">
+      <c r="C230" s="4">
         <v>105.09230769230768</v>
       </c>
-      <c r="D230" s="4">
+      <c r="D230" s="2">
         <v>103.33333333333333</v>
       </c>
-      <c r="E230" s="3">
+      <c r="E230" s="4">
         <v>90</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="2">
+      <c r="A231" s="6">
         <v>219</v>
       </c>
       <c r="B231" s="3">
         <v>182</v>
       </c>
-      <c r="C231" s="3">
+      <c r="C231" s="4">
         <v>104.09423076923076</v>
       </c>
-      <c r="D231" s="4">
+      <c r="D231" s="2">
         <v>103.5</v>
       </c>
-      <c r="E231" s="3">
+      <c r="E231" s="4">
         <v>94</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" s="2">
+      <c r="A232" s="5">
         <v>222</v>
       </c>
       <c r="B232" s="3">
         <v>183</v>
       </c>
-      <c r="C232" s="3">
+      <c r="C232" s="4">
         <v>103.09615384615384</v>
       </c>
-      <c r="D232" s="4">
+      <c r="D232" s="2">
         <v>103.66666666666667</v>
       </c>
-      <c r="E232" s="3">
+      <c r="E232" s="4">
         <v>98</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="2">
+      <c r="A233" s="6">
         <v>228</v>
       </c>
       <c r="B233" s="3">
         <v>185</v>
       </c>
-      <c r="C233" s="3">
+      <c r="C233" s="4">
         <v>102.09807692307692</v>
       </c>
-      <c r="D233" s="4">
+      <c r="D233" s="2">
         <v>103.83333333333333</v>
       </c>
-      <c r="E233" s="3">
+      <c r="E233" s="4">
         <v>94</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" s="2">
+      <c r="A234" s="6">
         <v>219</v>
       </c>
       <c r="B234" s="3">
         <v>189</v>
       </c>
-      <c r="C234" s="3">
+      <c r="C234" s="4">
         <v>101.1</v>
       </c>
-      <c r="D234" s="4">
+      <c r="D234" s="2">
         <v>104</v>
       </c>
-      <c r="E234" s="3">
+      <c r="E234" s="4">
         <v>95</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" s="2">
+      <c r="A235" s="5">
         <v>227</v>
       </c>
       <c r="B235" s="3">
         <v>187.5</v>
       </c>
-      <c r="C235" s="3">
+      <c r="C235" s="4">
         <v>97.3</v>
       </c>
-      <c r="D235" s="4">
+      <c r="D235" s="2">
         <v>104.5</v>
       </c>
-      <c r="E235" s="3">
+      <c r="E235" s="4">
         <v>95</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" s="2">
+      <c r="A236" s="6">
         <v>228</v>
       </c>
       <c r="B236" s="3">
         <v>186</v>
       </c>
-      <c r="C236" s="3">
+      <c r="C236" s="4">
         <v>98.86666666666666</v>
       </c>
-      <c r="D236" s="4">
+      <c r="D236" s="2">
         <v>105</v>
       </c>
-      <c r="E236" s="3">
+      <c r="E236" s="4">
         <v>95</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" s="2">
+      <c r="A237" s="6">
         <v>220</v>
       </c>
       <c r="B237" s="3">
         <v>184</v>
       </c>
-      <c r="C237" s="3">
+      <c r="C237" s="4">
         <v>100.43333333333334</v>
       </c>
-      <c r="D237" s="4">
+      <c r="D237" s="2">
         <v>105.5</v>
       </c>
-      <c r="E237" s="3">
+      <c r="E237" s="4">
         <v>95</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238" s="2">
+      <c r="A238" s="6">
         <v>227</v>
       </c>
       <c r="B238" s="3">
         <v>186</v>
       </c>
-      <c r="C238" s="3">
+      <c r="C238" s="4">
         <v>102</v>
       </c>
-      <c r="D238" s="4">
+      <c r="D238" s="2">
         <v>106</v>
       </c>
-      <c r="E238" s="3">
+      <c r="E238" s="4">
         <v>97.5</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239" s="2">
+      <c r="A239" s="6">
         <v>227</v>
       </c>
       <c r="B239" s="3">
         <v>188</v>
       </c>
-      <c r="C239" s="3">
+      <c r="C239" s="4">
         <v>105</v>
       </c>
-      <c r="D239" s="4">
+      <c r="D239" s="2">
         <v>106.5</v>
       </c>
-      <c r="E239" s="3">
+      <c r="E239" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240" s="2">
+      <c r="A240" s="6">
         <v>214.5</v>
       </c>
       <c r="B240" s="3">
         <v>186.5</v>
       </c>
-      <c r="C240" s="3">
+      <c r="C240" s="4">
         <v>102.43333333333334</v>
       </c>
-      <c r="D240" s="4">
+      <c r="D240" s="2">
         <v>107</v>
       </c>
-      <c r="E240" s="3">
+      <c r="E240" s="4">
         <v>99</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241" s="2">
+      <c r="A241" s="6">
         <v>202</v>
       </c>
       <c r="B241" s="3">
         <v>185</v>
       </c>
-      <c r="C241" s="3">
+      <c r="C241" s="4">
         <v>99.86666666666666</v>
       </c>
-      <c r="D241" s="4">
+      <c r="D241" s="2">
         <v>107.5</v>
       </c>
-      <c r="E241" s="3">
+      <c r="E241" s="4">
         <v>98</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="2">
+      <c r="A242" s="5">
         <v>202.5</v>
       </c>
       <c r="B242" s="3">
         <v>179</v>
       </c>
-      <c r="C242" s="3">
+      <c r="C242" s="4">
         <v>97.3</v>
       </c>
-      <c r="D242" s="4">
+      <c r="D242" s="2">
         <v>108</v>
       </c>
-      <c r="E242" s="3">
+      <c r="E242" s="4">
         <v>101</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" s="2">
+      <c r="A243" s="5">
         <v>203</v>
       </c>
       <c r="B243" s="3">
         <v>173</v>
       </c>
-      <c r="C243" s="3">
+      <c r="C243" s="4">
         <v>96.2</v>
       </c>
-      <c r="D243" s="4">
+      <c r="D243" s="2">
         <v>108.33333333333333</v>
       </c>
-      <c r="E243" s="3">
+      <c r="E243" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244" s="2">
+      <c r="A244" s="6">
         <v>201</v>
       </c>
       <c r="B244" s="3">
         <v>177</v>
       </c>
-      <c r="C244" s="3">
+      <c r="C244" s="4">
         <v>95.1</v>
       </c>
-      <c r="D244" s="4">
+      <c r="D244" s="2">
         <v>108.66666666666667</v>
       </c>
-      <c r="E244" s="3">
+      <c r="E244" s="4">
         <v>99</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245" s="2">
+      <c r="A245" s="6">
         <v>198</v>
       </c>
       <c r="B245" s="3">
         <v>180</v>
       </c>
-      <c r="C245" s="3">
+      <c r="C245" s="4">
         <v>94</v>
       </c>
-      <c r="D245" s="4">
+      <c r="D245" s="2">
         <v>109</v>
       </c>
-      <c r="E245" s="3">
+      <c r="E245" s="4">
         <v>98</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246" s="2">
+      <c r="A246" s="6">
         <v>197</v>
       </c>
       <c r="B246" s="3">
         <v>172</v>
       </c>
-      <c r="C246" s="3">
+      <c r="C246" s="4">
         <v>92.9</v>
       </c>
-      <c r="D246" s="4">
+      <c r="D246" s="2">
         <v>108.66666666666667</v>
       </c>
-      <c r="E246" s="3">
+      <c r="E246" s="4">
         <v>98</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247" s="2">
+      <c r="A247" s="6">
         <v>211</v>
       </c>
       <c r="B247" s="3">
         <v>168</v>
       </c>
-      <c r="C247" s="3">
+      <c r="C247" s="4">
         <v>91.8</v>
       </c>
-      <c r="D247" s="4">
+      <c r="D247" s="2">
         <v>108.33333333333333</v>
       </c>
-      <c r="E247" s="3">
+      <c r="E247" s="4">
         <v>98</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A248" s="2">
+      <c r="A248" s="6">
         <v>211</v>
       </c>
       <c r="B248" s="3">
         <v>167</v>
       </c>
-      <c r="C248" s="3">
+      <c r="C248" s="4">
         <v>90.7</v>
       </c>
-      <c r="D248" s="4">
+      <c r="D248" s="2">
         <v>108</v>
       </c>
-      <c r="E248" s="3">
+      <c r="E248" s="4">
         <v>98</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A249" s="2">
+      <c r="A249" s="6">
         <v>201</v>
       </c>
       <c r="B249" s="3">
         <v>166</v>
       </c>
-      <c r="C249" s="3">
+      <c r="C249" s="4">
         <v>89.6</v>
       </c>
-      <c r="D249" s="4">
+      <c r="D249" s="2">
         <v>107.57142857142857</v>
       </c>
-      <c r="E249" s="3">
+      <c r="E249" s="4">
         <v>99.5</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A250" s="2">
+      <c r="A250" s="6">
         <v>201</v>
       </c>
       <c r="B250" s="3">
         <v>165</v>
       </c>
-      <c r="C250" s="3">
+      <c r="C250" s="4">
         <v>88.5</v>
       </c>
-      <c r="D250" s="4">
+      <c r="D250" s="2">
         <v>107.14285714285714</v>
       </c>
-      <c r="E250" s="3">
+      <c r="E250" s="4">
         <v>101</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A251" s="2">
+      <c r="A251" s="6">
         <v>201</v>
       </c>
       <c r="B251" s="3">
         <v>164</v>
       </c>
-      <c r="C251" s="3">
+      <c r="C251" s="4">
         <v>87.4</v>
       </c>
-      <c r="D251" s="4">
+      <c r="D251" s="2">
         <v>106.71428571428571</v>
       </c>
-      <c r="E251" s="3">
+      <c r="E251" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A252" s="2">
+      <c r="A252" s="6">
         <v>203</v>
       </c>
       <c r="B252" s="3">
         <v>163</v>
       </c>
-      <c r="C252" s="3">
+      <c r="C252" s="4">
         <v>86.3</v>
       </c>
-      <c r="D252" s="4">
+      <c r="D252" s="2">
         <v>106.28571428571429</v>
       </c>
-      <c r="E252" s="3">
+      <c r="E252" s="4">
         <v>99</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A253" s="2">
+      <c r="A253" s="5">
         <v>206</v>
       </c>
       <c r="B253" s="3">
         <v>165</v>
       </c>
-      <c r="C253" s="3">
+      <c r="C253" s="4">
         <v>85.2</v>
       </c>
-      <c r="D253" s="4">
+      <c r="D253" s="2">
         <v>105.85714285714286</v>
       </c>
-      <c r="E253" s="3">
+      <c r="E253" s="4">
         <v>98.333333333333329</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A254" s="2">
+      <c r="A254" s="5">
         <v>210.66666666666666</v>
       </c>
       <c r="B254" s="3">
         <v>167</v>
       </c>
-      <c r="C254" s="3">
+      <c r="C254" s="4">
         <v>84.1</v>
       </c>
-      <c r="D254" s="4">
+      <c r="D254" s="2">
         <v>105.42857142857143</v>
       </c>
-      <c r="E254" s="3">
+      <c r="E254" s="4">
         <v>97.666666666666657</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" s="2">
+      <c r="A255" s="5">
         <v>215.33333333333334</v>
       </c>
       <c r="B255" s="3">
         <v>165</v>
       </c>
-      <c r="C255" s="3">
+      <c r="C255" s="4">
         <v>93.354545454545445</v>
       </c>
-      <c r="D255" s="4">
+      <c r="D255" s="2">
         <v>105</v>
       </c>
-      <c r="E255" s="3">
+      <c r="E255" s="4">
         <v>97</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256" s="2">
+      <c r="A256" s="5">
         <v>220</v>
       </c>
       <c r="B256" s="3">
         <v>163</v>
       </c>
-      <c r="C256" s="3">
+      <c r="C256" s="4">
         <v>102.60909090909091</v>
       </c>
-      <c r="D256" s="4">
+      <c r="D256" s="2">
         <v>106.66666666666667</v>
       </c>
-      <c r="E256" s="3">
+      <c r="E256" s="4">
         <v>96.5</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A257" s="2">
+      <c r="A257" s="6">
         <v>199</v>
       </c>
       <c r="B257" s="3">
         <v>163</v>
       </c>
-      <c r="C257" s="3">
+      <c r="C257" s="4">
         <v>111.86363636363636</v>
       </c>
-      <c r="D257" s="4">
+      <c r="D257" s="2">
         <v>108.33333333333333</v>
       </c>
-      <c r="E257" s="3">
+      <c r="E257" s="4">
         <v>96</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A258" s="2">
+      <c r="A258" s="6">
         <v>196.5</v>
       </c>
       <c r="B258" s="3">
         <v>162.5</v>
       </c>
-      <c r="C258" s="3">
+      <c r="C258" s="4">
         <v>121.11818181818182</v>
       </c>
-      <c r="D258" s="4">
+      <c r="D258" s="2">
         <v>110</v>
       </c>
-      <c r="E258" s="3">
+      <c r="E258" s="4">
         <v>95.5</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A259" s="2">
+      <c r="A259" s="6">
         <v>194</v>
       </c>
       <c r="B259" s="3">
         <v>162</v>
       </c>
-      <c r="C259" s="3">
+      <c r="C259" s="4">
         <v>130.37272727272727</v>
       </c>
-      <c r="D259" s="4">
+      <c r="D259" s="2">
         <v>109.25</v>
       </c>
-      <c r="E259" s="3">
+      <c r="E259" s="4">
         <v>95</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A260" s="2">
+      <c r="A260" s="6">
         <v>192</v>
       </c>
       <c r="B260" s="3">
         <v>162</v>
       </c>
-      <c r="C260" s="3">
+      <c r="C260" s="4">
         <v>139.62727272727273</v>
       </c>
-      <c r="D260" s="4">
+      <c r="D260" s="2">
         <v>108.5</v>
       </c>
-      <c r="E260" s="3">
+      <c r="E260" s="4">
         <v>94.333333333333329</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A261" s="2">
+      <c r="A261" s="6">
         <v>190.5</v>
       </c>
       <c r="B261" s="3">
         <v>162</v>
       </c>
-      <c r="C261" s="3">
+      <c r="C261" s="4">
         <v>148.88181818181818</v>
       </c>
-      <c r="D261" s="4">
+      <c r="D261" s="2">
         <v>107.75</v>
       </c>
-      <c r="E261" s="3">
+      <c r="E261" s="4">
         <v>93.666666666666657</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A262" s="2">
+      <c r="A262" s="6">
         <v>189</v>
       </c>
       <c r="B262" s="3">
         <v>160.5</v>
       </c>
-      <c r="C262" s="3">
+      <c r="C262" s="4">
         <v>158.13636363636363</v>
       </c>
-      <c r="D262" s="4">
+      <c r="D262" s="2">
         <v>107</v>
       </c>
-      <c r="E262" s="3">
+      <c r="E262" s="4">
         <v>93</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A263" s="2">
+      <c r="A263" s="5">
         <v>180</v>
       </c>
       <c r="B263" s="3">
         <v>159</v>
       </c>
-      <c r="C263" s="3">
+      <c r="C263" s="4">
         <v>167.39090909090908</v>
       </c>
-      <c r="D263" s="4">
+      <c r="D263" s="2">
         <v>106.25</v>
       </c>
-      <c r="E263" s="3">
+      <c r="E263" s="4">
         <v>92.5</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A264" s="2">
+      <c r="A264" s="6">
         <v>176</v>
       </c>
       <c r="B264" s="3">
         <v>162</v>
       </c>
-      <c r="C264" s="3">
+      <c r="C264" s="4">
         <v>176.64545454545456</v>
       </c>
-      <c r="D264" s="4">
+      <c r="D264" s="2">
         <v>105.5</v>
       </c>
-      <c r="E264" s="3">
+      <c r="E264" s="4">
         <v>92</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A265" s="2">
+      <c r="A265" s="6">
         <v>176</v>
       </c>
       <c r="B265" s="3">
         <v>162.5</v>
       </c>
-      <c r="C265" s="3">
+      <c r="C265" s="4">
         <v>185.9</v>
       </c>
-      <c r="D265" s="4">
+      <c r="D265" s="2">
         <v>104.75</v>
       </c>
-      <c r="E265" s="3">
+      <c r="E265" s="4">
         <v>91.2</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A266" s="2">
+      <c r="A266" s="6">
         <v>176</v>
       </c>
       <c r="B266" s="3">
         <v>163</v>
       </c>
-      <c r="C266" s="3">
+      <c r="C266" s="4">
         <v>168.5</v>
       </c>
-      <c r="D266" s="4">
+      <c r="D266" s="2">
         <v>104</v>
       </c>
-      <c r="E266" s="3">
+      <c r="E266" s="4">
         <v>90.4</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A267" s="2">
+      <c r="A267" s="5">
         <v>178</v>
       </c>
       <c r="B267" s="3">
         <v>159</v>
       </c>
-      <c r="C267" s="3">
+      <c r="C267" s="4">
         <v>167.24107142857142</v>
       </c>
-      <c r="D267" s="4">
+      <c r="D267" s="2">
         <v>104</v>
       </c>
-      <c r="E267" s="3">
+      <c r="E267" s="4">
         <v>89.6</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A268" s="2">
+      <c r="A268" s="6">
         <v>178</v>
       </c>
       <c r="B268" s="3">
         <v>156</v>
       </c>
-      <c r="C268" s="3">
+      <c r="C268" s="4">
         <v>165.98214285714286</v>
       </c>
-      <c r="D268" s="4"/>
-      <c r="E268" s="3">
+      <c r="D268" s="1"/>
+      <c r="E268" s="4">
         <v>88.8</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A269" s="2">
+      <c r="A269" s="6">
         <v>175</v>
       </c>
       <c r="B269" s="3">
         <v>155</v>
       </c>
-      <c r="C269" s="3">
+      <c r="C269" s="4">
         <v>164.72321428571428</v>
       </c>
-      <c r="D269" s="4"/>
-      <c r="E269" s="3">
+      <c r="D269" s="1"/>
+      <c r="E269" s="4">
         <v>88</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A270" s="2">
+      <c r="A270" s="6">
         <v>173</v>
       </c>
       <c r="B270" s="3">
         <v>154</v>
       </c>
-      <c r="C270" s="3">
+      <c r="C270" s="4">
         <v>163.46428571428572</v>
       </c>
-      <c r="D270" s="4"/>
-      <c r="E270" s="3">
+      <c r="D270" s="1"/>
+      <c r="E270" s="4">
         <v>87</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A271" s="2">
+      <c r="A271" s="6">
         <v>173</v>
       </c>
       <c r="B271" s="3">
         <v>153</v>
       </c>
-      <c r="C271" s="3">
+      <c r="C271" s="4">
         <v>162.20535714285714</v>
       </c>
-      <c r="D271" s="4"/>
-      <c r="E271" s="3">
+      <c r="D271" s="1"/>
+      <c r="E271" s="4">
         <v>86</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A272" s="2">
+      <c r="A272" s="6">
         <v>173</v>
       </c>
       <c r="B272" s="3">
         <v>154</v>
       </c>
-      <c r="C272" s="3">
+      <c r="C272" s="4">
         <v>160.94642857142858</v>
       </c>
-      <c r="D272" s="4"/>
-      <c r="E272" s="3">
+      <c r="D272" s="1"/>
+      <c r="E272" s="4">
         <v>86</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A273" s="2">
+      <c r="A273" s="6">
         <v>173</v>
       </c>
       <c r="B273" s="3">
         <v>157</v>
       </c>
-      <c r="C273" s="3">
+      <c r="C273" s="4">
         <v>159.6875</v>
       </c>
-      <c r="D273" s="4"/>
-      <c r="E273" s="3">
+      <c r="D273" s="1"/>
+      <c r="E273" s="4">
         <v>86</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A274" s="2">
+      <c r="A274" s="5">
         <v>170</v>
       </c>
       <c r="B274" s="3">
         <v>160</v>
       </c>
-      <c r="C274" s="3">
+      <c r="C274" s="4">
         <v>158.42857142857142</v>
       </c>
-      <c r="D274" s="4"/>
-      <c r="E274" s="3">
+      <c r="D274" s="1"/>
+      <c r="E274" s="4">
         <v>86</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A275" s="2">
+      <c r="A275" s="5">
         <v>167</v>
       </c>
       <c r="B275" s="3">
         <v>166</v>
       </c>
-      <c r="C275" s="3">
+      <c r="C275" s="4">
         <v>157.16964285714286</v>
       </c>
-      <c r="D275" s="4"/>
-      <c r="E275" s="3">
+      <c r="D275" s="1"/>
+      <c r="E275" s="4">
         <v>86</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A276" s="2">
+      <c r="A276" s="6">
         <v>174</v>
       </c>
       <c r="B276" s="3">
         <v>169</v>
       </c>
-      <c r="C276" s="3">
+      <c r="C276" s="4">
         <v>155.91071428571428</v>
       </c>
-      <c r="D276" s="4"/>
-      <c r="E276" s="3">
+      <c r="D276" s="1"/>
+      <c r="E276" s="4">
         <v>86</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A277" s="2">
+      <c r="A277" s="6">
         <v>174.5</v>
       </c>
       <c r="B277" s="3">
         <v>166</v>
       </c>
-      <c r="C277" s="3">
+      <c r="C277" s="4">
         <v>154.65178571428572</v>
       </c>
-      <c r="D277" s="4"/>
-      <c r="E277" s="3">
+      <c r="D277" s="1"/>
+      <c r="E277" s="4">
         <v>86</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A278" s="2">
+      <c r="A278" s="6">
         <v>175</v>
       </c>
       <c r="B278" s="3">
         <v>166.33333333333334</v>
       </c>
-      <c r="C278" s="3">
+      <c r="C278" s="4">
         <v>153.39285714285714</v>
       </c>
-      <c r="D278" s="4"/>
-      <c r="E278" s="3">
+      <c r="D278" s="1"/>
+      <c r="E278" s="4">
         <v>86</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A279" s="2">
+      <c r="A279" s="6">
         <v>188</v>
       </c>
       <c r="B279" s="3">
         <v>166.66666666666666</v>
       </c>
-      <c r="C279" s="3">
+      <c r="C279" s="4">
         <v>152.13392857142858</v>
       </c>
-      <c r="D279" s="4"/>
-      <c r="E279" s="3">
+      <c r="D279" s="1"/>
+      <c r="E279" s="4">
         <v>86.75</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A280" s="2">
+      <c r="A280" s="6">
         <v>192</v>
       </c>
       <c r="B280" s="3">
         <v>167</v>
       </c>
-      <c r="C280" s="3">
+      <c r="C280" s="4">
         <v>150.875</v>
       </c>
-      <c r="D280" s="4"/>
-      <c r="E280" s="3">
+      <c r="D280" s="1"/>
+      <c r="E280" s="4">
         <v>87.5</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A281" s="2">
+      <c r="A281" s="5">
         <v>188</v>
       </c>
       <c r="B281" s="3">
         <v>164</v>
       </c>
-      <c r="C281" s="3">
+      <c r="C281" s="4">
         <v>149.61607142857144</v>
       </c>
-      <c r="D281" s="4"/>
-      <c r="E281" s="3">
+      <c r="D281" s="1"/>
+      <c r="E281" s="4">
         <v>88.25</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A282" s="2">
+      <c r="A282" s="6">
         <v>187</v>
       </c>
       <c r="B282" s="3">
         <v>161</v>
       </c>
-      <c r="C282" s="3">
+      <c r="C282" s="4">
         <v>148.35714285714286</v>
       </c>
-      <c r="D282" s="4"/>
-      <c r="E282" s="3">
+      <c r="D282" s="1"/>
+      <c r="E282" s="4">
         <v>89</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A283" s="2">
+      <c r="A283" s="6">
         <v>192</v>
       </c>
       <c r="B283" s="3">
         <v>158</v>
       </c>
-      <c r="C283" s="3">
+      <c r="C283" s="4">
         <v>147.09821428571428</v>
       </c>
-      <c r="D283" s="4"/>
-      <c r="E283" s="3">
+      <c r="D283" s="1"/>
+      <c r="E283" s="4">
         <v>89.75</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A284" s="2">
+      <c r="A284" s="6">
         <v>197</v>
       </c>
       <c r="B284" s="3">
         <v>155</v>
       </c>
-      <c r="C284" s="3">
+      <c r="C284" s="4">
         <v>145.83928571428572</v>
       </c>
-      <c r="D284" s="4"/>
-      <c r="E284" s="3">
+      <c r="D284" s="1"/>
+      <c r="E284" s="4">
         <v>90.5</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A285" s="2">
+      <c r="A285" s="6">
         <v>202</v>
       </c>
       <c r="B285" s="3">
         <v>152</v>
       </c>
-      <c r="C285" s="3">
+      <c r="C285" s="4">
         <v>144.58035714285714</v>
       </c>
-      <c r="D285" s="4"/>
-      <c r="E285" s="3">
+      <c r="D285" s="1"/>
+      <c r="E285" s="4">
         <v>91.25</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A286" s="2">
+      <c r="A286" s="5">
         <v>176.5</v>
       </c>
       <c r="B286" s="3">
         <v>149</v>
       </c>
-      <c r="C286" s="3">
+      <c r="C286" s="4">
         <v>143.32142857142858</v>
       </c>
-      <c r="D286" s="4"/>
-      <c r="E286" s="3">
+      <c r="D286" s="1"/>
+      <c r="E286" s="4">
         <v>92</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A287" s="2">
+      <c r="A287" s="5">
         <v>181</v>
       </c>
       <c r="B287" s="3">
         <v>170</v>
       </c>
-      <c r="C287" s="3">
+      <c r="C287" s="4">
         <v>142.0625</v>
       </c>
-      <c r="D287" s="4"/>
-      <c r="E287" s="3">
+      <c r="D287" s="1"/>
+      <c r="E287" s="4">
         <v>87</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A288" s="2">
+      <c r="A288" s="5">
         <v>160</v>
       </c>
       <c r="B288" s="3">
         <v>191</v>
       </c>
-      <c r="C288" s="3">
+      <c r="C288" s="4">
         <v>140.80357142857144</v>
       </c>
-      <c r="D288" s="4"/>
-      <c r="E288" s="3">
+      <c r="D288" s="1"/>
+      <c r="E288" s="4">
         <v>87</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A289" s="2">
+      <c r="A289" s="6">
         <v>159</v>
       </c>
       <c r="B289" s="3">
         <v>150</v>
       </c>
-      <c r="C289" s="3">
+      <c r="C289" s="4">
         <v>139.54464285714286</v>
       </c>
-      <c r="D289" s="4"/>
-      <c r="E289" s="3">
+      <c r="D289" s="1"/>
+      <c r="E289" s="4">
         <v>87</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A290" s="2">
+      <c r="A290" s="6">
         <v>164</v>
       </c>
       <c r="B290" s="3">
         <v>148</v>
       </c>
-      <c r="C290" s="3">
+      <c r="C290" s="4">
         <v>138.28571428571428</v>
       </c>
-      <c r="D290" s="4"/>
-      <c r="E290" s="3">
+      <c r="D290" s="1"/>
+      <c r="E290" s="4">
         <v>87</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A291" s="2">
+      <c r="A291" s="6">
         <v>163</v>
       </c>
       <c r="B291" s="3">
         <v>143</v>
       </c>
-      <c r="C291" s="3">
+      <c r="C291" s="4">
         <v>137.02678571428572</v>
       </c>
-      <c r="D291" s="4"/>
-      <c r="E291" s="3">
+      <c r="D291" s="1"/>
+      <c r="E291" s="4">
         <v>87</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A292" s="2">
+      <c r="A292" s="6">
         <v>158</v>
       </c>
       <c r="B292" s="3">
         <v>142.5</v>
       </c>
-      <c r="C292" s="3">
+      <c r="C292" s="4">
         <v>135.76785714285714</v>
       </c>
-      <c r="D292" s="4">
+      <c r="D292" s="2">
         <v>105</v>
       </c>
-      <c r="E292" s="3">
+      <c r="E292" s="4">
         <v>87</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A293" s="2">
+      <c r="A293" s="6">
         <v>158.5</v>
       </c>
       <c r="B293" s="3">
         <v>142</v>
       </c>
-      <c r="C293" s="3">
+      <c r="C293" s="4">
         <v>134.50892857142856</v>
       </c>
-      <c r="D293" s="4">
+      <c r="D293" s="2">
         <v>105</v>
       </c>
-      <c r="E293" s="3">
+      <c r="E293" s="4">
         <v>87</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A294" s="2">
+      <c r="A294" s="6">
         <v>159</v>
       </c>
       <c r="B294" s="3">
         <v>141.66666666666666</v>
       </c>
-      <c r="C294" s="3">
+      <c r="C294" s="4">
         <v>133.25</v>
       </c>
-      <c r="D294" s="4">
+      <c r="D294" s="2">
         <v>104</v>
       </c>
-      <c r="E294" s="3">
+      <c r="E294" s="4">
         <v>87</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A295" s="2">
+      <c r="A295" s="5">
         <v>155</v>
       </c>
       <c r="B295" s="3">
         <v>141.33333333333334</v>
       </c>
-      <c r="C295" s="3">
+      <c r="C295" s="4">
         <v>131.99107142857144</v>
       </c>
-      <c r="D295" s="4">
+      <c r="D295" s="2">
         <v>103</v>
       </c>
-      <c r="E295" s="3">
+      <c r="E295" s="4">
         <v>86.666666666666671</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A296" s="2">
+      <c r="A296" s="5">
         <v>153</v>
       </c>
       <c r="B296" s="3">
         <v>141</v>
       </c>
-      <c r="C296" s="3">
+      <c r="C296" s="4">
         <v>130.73214285714286</v>
       </c>
-      <c r="D296" s="4">
+      <c r="D296" s="2">
         <v>102</v>
       </c>
-      <c r="E296" s="3">
+      <c r="E296" s="4">
         <v>86.333333333333343</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A297" s="2">
+      <c r="A297" s="6">
         <v>152</v>
       </c>
       <c r="B297" s="3">
         <v>147</v>
       </c>
-      <c r="C297" s="3">
+      <c r="C297" s="4">
         <v>129.47321428571428</v>
       </c>
-      <c r="D297" s="4">
+      <c r="D297" s="2">
         <v>101</v>
       </c>
-      <c r="E297" s="3">
+      <c r="E297" s="4">
         <v>86</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A298" s="2">
+      <c r="A298" s="5">
         <v>157</v>
       </c>
       <c r="B298" s="3">
         <v>149</v>
       </c>
-      <c r="C298" s="3">
+      <c r="C298" s="4">
         <v>128.21428571428572</v>
       </c>
-      <c r="D298" s="4">
+      <c r="D298" s="2">
         <v>99.5</v>
       </c>
-      <c r="E298" s="3">
+      <c r="E298" s="4">
         <v>85</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A299" s="2">
+      <c r="A299" s="5">
         <v>159</v>
       </c>
       <c r="B299" s="3">
         <v>151</v>
       </c>
-      <c r="C299" s="3">
+      <c r="C299" s="4">
         <v>126.95535714285714</v>
       </c>
-      <c r="D299" s="4">
+      <c r="D299" s="2">
         <v>98</v>
       </c>
-      <c r="E299" s="3">
+      <c r="E299" s="4">
         <v>84</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A300" s="2">
+      <c r="A300" s="6">
         <v>162</v>
       </c>
       <c r="B300" s="3">
         <v>145</v>
       </c>
-      <c r="C300" s="3">
+      <c r="C300" s="4">
         <v>125.69642857142857</v>
       </c>
-      <c r="D300" s="4">
+      <c r="D300" s="2">
         <v>103</v>
       </c>
-      <c r="E300" s="3">
+      <c r="E300" s="4">
         <v>85</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A301" s="2">
+      <c r="A301" s="5">
         <v>162</v>
       </c>
       <c r="B301" s="3">
         <v>145</v>
       </c>
-      <c r="C301" s="3">
+      <c r="C301" s="4">
         <v>124.4375</v>
       </c>
-      <c r="D301" s="4">
+      <c r="D301" s="2">
         <v>108</v>
       </c>
-      <c r="E301" s="3">
+      <c r="E301" s="4">
         <v>86</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A302" s="2">
+      <c r="A302" s="5">
         <v>163</v>
       </c>
       <c r="B302" s="3">
         <v>143</v>
       </c>
-      <c r="C302" s="3">
+      <c r="C302" s="4">
         <v>123.17857142857143</v>
       </c>
-      <c r="D302" s="4">
+      <c r="D302" s="2">
         <v>105</v>
       </c>
-      <c r="E302" s="3">
+      <c r="E302" s="4">
         <v>87</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A303" s="2">
+      <c r="A303" s="6">
         <v>162</v>
       </c>
       <c r="B303" s="3">
         <v>140.5</v>
       </c>
-      <c r="C303" s="3">
+      <c r="C303" s="4">
         <v>121.91964285714286</v>
       </c>
-      <c r="D303" s="4">
+      <c r="D303" s="2">
         <v>102</v>
       </c>
-      <c r="E303" s="3">
+      <c r="E303" s="4">
         <v>87</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A304" s="2">
+      <c r="A304" s="6">
         <v>162</v>
       </c>
       <c r="B304" s="3">
         <v>138</v>
       </c>
-      <c r="C304" s="3">
+      <c r="C304" s="4">
         <v>120.66071428571428</v>
       </c>
-      <c r="D304" s="4">
+      <c r="D304" s="2">
         <v>99</v>
       </c>
-      <c r="E304" s="3">
+      <c r="E304" s="4">
         <v>87</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A305" s="2">
+      <c r="A305" s="6">
         <v>161.5</v>
       </c>
       <c r="B305" s="3">
         <v>139</v>
       </c>
-      <c r="C305" s="3">
+      <c r="C305" s="4">
         <v>119.40178571428572</v>
       </c>
-      <c r="D305" s="4">
+      <c r="D305" s="2">
         <v>100.5</v>
       </c>
-      <c r="E305" s="3">
+      <c r="E305" s="4">
         <v>87</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A306" s="2">
+      <c r="A306" s="6">
         <v>161</v>
       </c>
       <c r="B306" s="3">
         <v>140</v>
       </c>
-      <c r="C306" s="3">
+      <c r="C306" s="4">
         <v>118.14285714285714</v>
       </c>
-      <c r="D306" s="4">
+      <c r="D306" s="2">
         <v>102</v>
       </c>
-      <c r="E306" s="3">
+      <c r="E306" s="4">
         <v>87</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A307" s="2">
+      <c r="A307" s="6">
         <v>162</v>
       </c>
       <c r="B307" s="3">
         <v>145</v>
       </c>
-      <c r="C307" s="3">
+      <c r="C307" s="4">
         <v>116.88392857142857</v>
       </c>
-      <c r="D307" s="4">
+      <c r="D307" s="2">
         <v>102</v>
       </c>
-      <c r="E307" s="3">
+      <c r="E307" s="4">
         <v>87</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A308" s="2">
+      <c r="A308" s="6">
         <v>169</v>
       </c>
       <c r="B308" s="3">
         <v>150</v>
       </c>
-      <c r="C308" s="3">
+      <c r="C308" s="4">
         <v>115.625</v>
       </c>
-      <c r="D308" s="4">
+      <c r="D308" s="2">
         <v>102</v>
       </c>
-      <c r="E308" s="3">
+      <c r="E308" s="4">
         <v>87</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A309" s="2">
+      <c r="A309" s="6">
         <v>163</v>
       </c>
       <c r="B309" s="3">
         <v>142.5</v>
       </c>
-      <c r="C309" s="3">
+      <c r="C309" s="4">
         <v>114.36607142857143</v>
       </c>
-      <c r="D309" s="4">
+      <c r="D309" s="2">
         <v>100</v>
       </c>
-      <c r="E309" s="3">
+      <c r="E309" s="4">
         <v>87</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A310" s="2">
+      <c r="A310" s="6">
         <v>164.5</v>
       </c>
       <c r="B310" s="3">
         <v>135</v>
       </c>
-      <c r="C310" s="3">
+      <c r="C310" s="4">
         <v>113.10714285714286</v>
       </c>
-      <c r="D310" s="4">
+      <c r="D310" s="2">
         <v>98</v>
       </c>
-      <c r="E310" s="3">
+      <c r="E310" s="4">
         <v>87</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A311" s="2">
+      <c r="A311" s="6">
         <v>166</v>
       </c>
       <c r="B311" s="3">
         <v>126</v>
       </c>
-      <c r="C311" s="3">
+      <c r="C311" s="4">
         <v>111.84821428571428</v>
       </c>
-      <c r="D311" s="4">
+      <c r="D311" s="2">
         <v>96</v>
       </c>
-      <c r="E311" s="3">
+      <c r="E311" s="4">
         <v>87</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A312" s="2">
+      <c r="A312" s="6">
         <v>163.5</v>
       </c>
       <c r="B312" s="3">
         <v>129</v>
       </c>
-      <c r="C312" s="3">
+      <c r="C312" s="4">
         <v>110.58928571428572</v>
       </c>
-      <c r="D312" s="4">
+      <c r="D312" s="2">
         <v>96</v>
       </c>
-      <c r="E312" s="3">
+      <c r="E312" s="4">
         <v>90</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A313" s="2">
+      <c r="A313" s="6">
         <v>161</v>
       </c>
       <c r="B313" s="3">
         <v>132</v>
       </c>
-      <c r="C313" s="3">
+      <c r="C313" s="4">
         <v>109.33035714285714</v>
       </c>
-      <c r="D313" s="4">
+      <c r="D313" s="2">
         <v>96</v>
       </c>
-      <c r="E313" s="3">
+      <c r="E313" s="4">
         <v>93</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A314" s="2">
+      <c r="A314" s="6">
         <v>161</v>
       </c>
       <c r="B314" s="3">
         <v>135</v>
       </c>
-      <c r="C314" s="3">
+      <c r="C314" s="4">
         <v>108.07142857142857</v>
       </c>
-      <c r="D314" s="4">
+      <c r="D314" s="2">
         <v>96</v>
       </c>
-      <c r="E314" s="3">
+      <c r="E314" s="4">
         <v>92.5</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A315" s="2">
+      <c r="A315" s="5">
         <v>162</v>
       </c>
       <c r="B315" s="3">
         <v>132.5</v>
       </c>
-      <c r="C315" s="3">
+      <c r="C315" s="4">
         <v>106.8125</v>
       </c>
-      <c r="D315" s="4">
+      <c r="D315" s="2">
         <v>93</v>
       </c>
-      <c r="E315" s="3">
+      <c r="E315" s="4">
         <v>92</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A316" s="2">
+      <c r="A316" s="6">
         <v>161</v>
       </c>
       <c r="B316" s="3">
         <v>130</v>
       </c>
-      <c r="C316" s="3">
+      <c r="C316" s="4">
         <v>105.55357142857143</v>
       </c>
-      <c r="D316" s="4">
+      <c r="D316" s="2">
         <v>93.666666666666671</v>
       </c>
-      <c r="E316" s="3">
+      <c r="E316" s="4">
         <v>91.666666666666671</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A317" s="2">
+      <c r="A317" s="6">
         <v>158</v>
       </c>
       <c r="B317" s="3">
         <v>130</v>
       </c>
-      <c r="C317" s="3">
+      <c r="C317" s="4">
         <v>104.29464285714286</v>
       </c>
-      <c r="D317" s="4">
+      <c r="D317" s="2">
         <v>94.333333333333329</v>
       </c>
-      <c r="E317" s="3">
+      <c r="E317" s="4">
         <v>91.333333333333343</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A318" s="2">
+      <c r="A318" s="5">
         <v>153</v>
       </c>
       <c r="B318" s="3">
         <v>130</v>
       </c>
-      <c r="C318" s="3">
+      <c r="C318" s="4">
         <v>103.03571428571429</v>
       </c>
-      <c r="D318" s="4">
+      <c r="D318" s="2">
         <v>95</v>
       </c>
-      <c r="E318" s="3">
+      <c r="E318" s="4">
         <v>91</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A319" s="2">
+      <c r="A319" s="6">
         <v>152</v>
       </c>
       <c r="B319" s="3">
         <v>129.66666666666666</v>
       </c>
-      <c r="C319" s="3">
+      <c r="C319" s="4">
         <v>101.77678571428572</v>
       </c>
-      <c r="D319" s="4">
+      <c r="D319" s="2">
         <v>95.5</v>
       </c>
-      <c r="E319" s="3">
+      <c r="E319" s="4">
         <v>91</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A320" s="2">
+      <c r="A320" s="6">
         <v>147</v>
       </c>
       <c r="B320" s="3">
         <v>129.33333333333334</v>
       </c>
-      <c r="C320" s="3">
+      <c r="C320" s="4">
         <v>100.51785714285714</v>
       </c>
-      <c r="D320" s="4">
+      <c r="D320" s="2">
         <v>96</v>
       </c>
-      <c r="E320" s="3">
+      <c r="E320" s="4">
         <v>91</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A321" s="2">
+      <c r="A321" s="6">
         <v>145</v>
       </c>
       <c r="B321" s="3">
         <v>129</v>
       </c>
-      <c r="C321" s="3">
+      <c r="C321" s="4">
         <v>99.258928571428569</v>
       </c>
-      <c r="D321" s="4">
+      <c r="D321" s="2">
         <v>71</v>
       </c>
-      <c r="E321" s="3">
+      <c r="E321" s="4">
         <v>91</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A322" s="2">
+      <c r="A322" s="6">
         <v>143</v>
       </c>
       <c r="B322" s="3">
         <v>129</v>
       </c>
-      <c r="C322" s="3">
+      <c r="C322" s="4">
         <v>98</v>
       </c>
-      <c r="D322" s="4">
+      <c r="D322" s="2">
         <v>46</v>
       </c>
-      <c r="E322" s="3">
+      <c r="E322" s="4">
         <v>91</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A323" s="2">
+      <c r="A323" s="5">
         <v>147</v>
       </c>
       <c r="B323" s="3">
         <v>130</v>
       </c>
-      <c r="C323" s="3">
+      <c r="C323" s="4">
         <v>99</v>
       </c>
-      <c r="D323" s="4">
+      <c r="D323" s="2">
         <v>62</v>
       </c>
-      <c r="E323" s="3">
+      <c r="E323" s="4">
         <v>91</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A324" s="2">
+      <c r="A324" s="6">
         <v>142</v>
       </c>
       <c r="B324" s="3">
         <v>134</v>
       </c>
-      <c r="C324" s="3">
+      <c r="C324" s="4">
         <v>71</v>
       </c>
-      <c r="D324" s="4">
+      <c r="D324" s="2">
         <v>78</v>
       </c>
-      <c r="E324" s="3">
+      <c r="E324" s="4">
         <v>91.666666666666657</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A325" s="2">
+      <c r="A325" s="5">
         <v>141</v>
       </c>
       <c r="B325" s="3">
         <v>127</v>
       </c>
-      <c r="C325" s="3">
+      <c r="C325" s="4">
         <v>83</v>
       </c>
-      <c r="D325" s="4">
+      <c r="D325" s="2">
         <v>94</v>
       </c>
-      <c r="E325" s="3">
+      <c r="E325" s="4">
         <v>92.333333333333329</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A326" s="2">
+      <c r="A326" s="6">
         <v>139</v>
       </c>
       <c r="B326" s="3">
         <v>126.33333333333333</v>
       </c>
-      <c r="C326" s="3">
+      <c r="C326" s="4">
         <v>95</v>
       </c>
-      <c r="D326" s="4">
+      <c r="D326" s="2">
         <v>89</v>
       </c>
-      <c r="E326" s="3">
+      <c r="E326" s="4">
         <v>93</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A327" s="2">
+      <c r="A327" s="6">
         <v>134</v>
       </c>
       <c r="B327" s="3">
         <v>125.66666666666667</v>
       </c>
-      <c r="C327" s="3">
+      <c r="C327" s="4">
         <v>95</v>
       </c>
-      <c r="D327" s="4">
+      <c r="D327" s="2">
         <v>84</v>
       </c>
-      <c r="E327" s="3">
+      <c r="E327" s="4">
         <v>91.333333333333329</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A328" s="2">
+      <c r="A328" s="6">
         <v>134.5</v>
       </c>
       <c r="B328" s="3">
         <v>125</v>
       </c>
-      <c r="C328" s="3">
+      <c r="C328" s="4">
         <v>94</v>
       </c>
-      <c r="D328" s="4">
+      <c r="D328" s="2">
         <v>85.666666666666671</v>
       </c>
-      <c r="E328" s="3">
+      <c r="E328" s="4">
         <v>89.666666666666657</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A329" s="2">
+      <c r="A329" s="6">
         <v>135</v>
       </c>
       <c r="B329" s="3">
         <v>124</v>
       </c>
-      <c r="C329" s="3">
+      <c r="C329" s="4">
         <v>90.666666666666671</v>
       </c>
-      <c r="D329" s="4">
+      <c r="D329" s="2">
         <v>87.333333333333329</v>
       </c>
-      <c r="E329" s="3">
+      <c r="E329" s="4">
         <v>88</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A330" s="2">
+      <c r="A330" s="6">
         <v>135</v>
       </c>
       <c r="B330" s="3">
         <v>124</v>
       </c>
-      <c r="C330" s="3">
+      <c r="C330" s="4">
         <v>87.333333333333329</v>
       </c>
-      <c r="D330" s="4">
+      <c r="D330" s="2">
         <v>89</v>
       </c>
-      <c r="E330" s="3">
+      <c r="E330" s="4">
         <v>86.666666666666643</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A331" s="2">
+      <c r="A331" s="6">
         <v>133</v>
       </c>
       <c r="B331" s="3">
         <v>124</v>
       </c>
-      <c r="C331" s="3">
+      <c r="C331" s="4">
         <v>84</v>
       </c>
-      <c r="D331" s="4">
+      <c r="D331" s="2">
         <v>88</v>
       </c>
-      <c r="E331" s="3">
+      <c r="E331" s="4">
         <v>85.333333333333329</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A332" s="2">
+      <c r="A332" s="6">
         <v>129</v>
       </c>
       <c r="B332" s="3">
         <v>126</v>
       </c>
-      <c r="C332" s="3">
+      <c r="C332" s="4">
         <v>87</v>
       </c>
-      <c r="D332" s="4">
+      <c r="D332" s="2">
         <v>87</v>
       </c>
-      <c r="E332" s="3">
+      <c r="E332" s="4">
         <v>84</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A333" s="2">
+      <c r="A333" s="5">
         <v>128</v>
       </c>
       <c r="B333" s="3">
         <v>128</v>
       </c>
-      <c r="C333" s="3">
+      <c r="C333" s="4">
         <v>87</v>
       </c>
-      <c r="D333" s="4">
+      <c r="D333" s="2">
         <v>86</v>
       </c>
-      <c r="E333" s="3">
+      <c r="E333" s="4">
         <v>84.75</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A334" s="2">
+      <c r="A334" s="6">
         <v>135</v>
       </c>
       <c r="B334" s="3">
         <v>130</v>
       </c>
-      <c r="C334" s="3">
+      <c r="C334" s="4">
         <v>93</v>
       </c>
-      <c r="D334" s="4">
+      <c r="D334" s="2">
         <v>85</v>
       </c>
-      <c r="E334" s="3">
+      <c r="E334" s="4">
         <v>85.5</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A335" s="2">
+      <c r="A335" s="6">
         <v>136</v>
       </c>
       <c r="B335" s="3">
         <v>132</v>
       </c>
-      <c r="C335" s="3">
+      <c r="C335" s="4">
         <v>95</v>
       </c>
-      <c r="D335" s="4">
+      <c r="D335" s="2">
         <v>82.5</v>
       </c>
-      <c r="E335" s="3">
+      <c r="E335" s="4">
         <v>86.25</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A336" s="2">
+      <c r="A336" s="6">
         <v>135</v>
       </c>
       <c r="B336" s="3">
         <v>129</v>
       </c>
-      <c r="C336" s="3">
+      <c r="C336" s="4">
         <v>87</v>
       </c>
-      <c r="D336" s="4">
+      <c r="D336" s="2">
         <v>80</v>
       </c>
-      <c r="E336" s="3">
+      <c r="E336" s="4">
         <v>87</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A337" s="2">
+      <c r="A337" s="6">
         <v>135</v>
       </c>
       <c r="B337" s="3">
         <v>126</v>
       </c>
-      <c r="C337" s="3">
+      <c r="C337" s="4">
         <v>86</v>
       </c>
-      <c r="D337" s="4">
+      <c r="D337" s="2">
         <v>80</v>
       </c>
-      <c r="E337" s="3">
+      <c r="E337" s="4">
         <v>88</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A338" s="2">
+      <c r="A338" s="6">
         <v>133.85832681028265</v>
       </c>
       <c r="B338" s="3">
         <v>126</v>
       </c>
-      <c r="C338" s="3">
+      <c r="C338" s="4">
         <v>96</v>
       </c>
-      <c r="D338" s="4">
+      <c r="D338" s="2">
         <v>80</v>
       </c>
-      <c r="E338" s="3">
+      <c r="E338" s="4">
         <v>89</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A339" s="2">
+      <c r="A339" s="6">
         <v>132.71665362056532</v>
       </c>
       <c r="B339" s="3">
         <v>126</v>
       </c>
-      <c r="C339" s="3">
+      <c r="C339" s="4">
         <v>93</v>
       </c>
-      <c r="D339" s="4">
+      <c r="D339" s="2">
         <v>80</v>
       </c>
-      <c r="E339" s="3">
+      <c r="E339" s="4">
         <v>90</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A340" s="2">
+      <c r="A340" s="6">
         <v>131.57498043084797</v>
       </c>
       <c r="B340" s="3">
         <v>125.5</v>
       </c>
-      <c r="C340" s="3">
+      <c r="C340" s="4">
         <v>92</v>
       </c>
-      <c r="D340" s="4">
+      <c r="D340" s="2">
         <v>78.5</v>
       </c>
-      <c r="E340" s="3">
+      <c r="E340" s="4">
         <v>89</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A341" s="2">
+      <c r="A341" s="6">
         <v>130.43330724113062</v>
       </c>
       <c r="B341" s="3">
         <v>125</v>
       </c>
-      <c r="C341" s="3">
+      <c r="C341" s="4">
         <v>94</v>
       </c>
-      <c r="D341" s="4">
+      <c r="D341" s="2">
         <v>77</v>
       </c>
-      <c r="E341" s="3">
+      <c r="E341" s="4">
         <v>88</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A342" s="2">
+      <c r="A342" s="6">
         <v>129.2916340514133</v>
       </c>
       <c r="B342" s="3">
         <v>124.5</v>
       </c>
-      <c r="C342" s="3">
+      <c r="C342" s="4">
         <v>101</v>
       </c>
-      <c r="D342" s="4">
+      <c r="D342" s="2">
         <v>59.666666666666671</v>
       </c>
-      <c r="E342" s="3">
+      <c r="E342" s="4">
         <v>87</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A343" s="2">
+      <c r="A343" s="6">
         <v>128.14996086169594</v>
       </c>
       <c r="B343" s="3">
         <v>124</v>
       </c>
-      <c r="C343" s="3">
+      <c r="C343" s="4">
         <v>91</v>
       </c>
-      <c r="D343" s="4">
+      <c r="D343" s="2">
         <v>42.333333333333336</v>
       </c>
-      <c r="E343" s="3">
+      <c r="E343" s="4">
         <v>85.5</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A344" s="2">
+      <c r="A344" s="6">
         <v>127.00828767197861</v>
       </c>
       <c r="B344" s="3">
         <v>123.5</v>
       </c>
-      <c r="C344" s="3">
+      <c r="C344" s="4">
         <v>75</v>
       </c>
-      <c r="D344" s="4">
+      <c r="D344" s="2">
         <v>25</v>
       </c>
-      <c r="E344" s="3">
+      <c r="E344" s="4">
         <v>84</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A345" s="2">
+      <c r="A345" s="6">
         <v>125.86661448226127</v>
       </c>
       <c r="B345" s="3">
         <v>123</v>
       </c>
-      <c r="C345" s="3">
+      <c r="C345" s="4">
         <v>69</v>
       </c>
-      <c r="D345" s="4">
+      <c r="D345" s="2">
         <v>31.666666666666668</v>
       </c>
-      <c r="E345" s="3">
+      <c r="E345" s="4">
         <v>82.5</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A346" s="2">
+      <c r="A346" s="6">
         <v>124.72494129254393</v>
       </c>
       <c r="B346" s="3">
         <v>122.5</v>
       </c>
-      <c r="C346" s="3">
+      <c r="C346" s="4">
         <v>81</v>
       </c>
-      <c r="D346" s="4">
+      <c r="D346" s="2">
         <v>38.333333333333336</v>
       </c>
-      <c r="E346" s="3">
+      <c r="E346" s="4">
         <v>81</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A347" s="2">
+      <c r="A347" s="6">
         <v>123.58326810282658</v>
       </c>
       <c r="B347" s="3">
         <v>122</v>
       </c>
-      <c r="C347" s="3">
+      <c r="C347" s="4">
         <v>93</v>
       </c>
-      <c r="D347" s="4">
+      <c r="D347" s="2">
         <v>45</v>
       </c>
-      <c r="E347" s="3">
+      <c r="E347" s="4">
         <v>81</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A348" s="2">
+      <c r="A348" s="6">
         <v>122.44159491310924</v>
       </c>
       <c r="B348" s="3">
         <v>119.9</v>
       </c>
-      <c r="C348" s="3">
+      <c r="C348" s="4">
         <v>85</v>
       </c>
-      <c r="D348" s="4">
+      <c r="D348" s="2">
         <v>50.666666666666664</v>
       </c>
-      <c r="E348" s="3">
+      <c r="E348" s="4">
         <v>81</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A349" s="2">
+      <c r="A349" s="6">
         <v>121.2999217233919</v>
       </c>
       <c r="B349" s="3">
         <v>117.8</v>
       </c>
-      <c r="C349" s="3">
+      <c r="C349" s="4">
         <v>86.5</v>
       </c>
-      <c r="D349" s="4">
+      <c r="D349" s="2">
         <v>56.333333333333336</v>
       </c>
-      <c r="E349" s="3">
+      <c r="E349" s="4">
         <v>81</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A350" s="2">
+      <c r="A350" s="6">
         <v>120.15824853367457</v>
       </c>
       <c r="B350" s="3">
         <v>115.7</v>
       </c>
-      <c r="C350" s="3">
+      <c r="C350" s="4">
         <v>88</v>
       </c>
-      <c r="D350" s="4">
+      <c r="D350" s="2">
         <v>62</v>
       </c>
-      <c r="E350" s="3">
+      <c r="E350" s="4">
         <v>82</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A351" s="2">
+      <c r="A351" s="6">
         <v>119.01657534395721</v>
       </c>
       <c r="B351" s="3">
         <v>113.6</v>
       </c>
-      <c r="C351" s="3">
+      <c r="C351" s="4">
         <v>75</v>
       </c>
-      <c r="D351" s="4">
+      <c r="D351" s="2">
         <v>56.333333333333336</v>
       </c>
-      <c r="E351" s="3">
+      <c r="E351" s="4">
         <v>83</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A352" s="2">
+      <c r="A352" s="6">
         <v>117.87490215423988</v>
       </c>
       <c r="B352" s="3">
         <v>111.5</v>
       </c>
-      <c r="C352" s="3">
+      <c r="C352" s="4">
         <v>80</v>
       </c>
-      <c r="D352" s="4">
+      <c r="D352" s="2">
         <v>50.666666666666664</v>
       </c>
-      <c r="E352" s="3">
+      <c r="E352" s="4">
         <v>83.666666666666657</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A353" s="2">
+      <c r="A353" s="6">
         <v>116.73322896452254</v>
       </c>
       <c r="B353" s="3">
         <v>109.4</v>
       </c>
-      <c r="C353" s="3">
+      <c r="C353" s="4">
         <v>80</v>
       </c>
-      <c r="D353" s="4">
+      <c r="D353" s="2">
         <v>45</v>
       </c>
-      <c r="E353" s="3">
+      <c r="E353" s="4">
         <v>84.333333333333329</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A354" s="2">
+      <c r="A354" s="6">
         <v>115.59155577480519</v>
       </c>
       <c r="B354" s="3">
         <v>107.3</v>
       </c>
-      <c r="C354" s="3">
+      <c r="C354" s="4">
         <v>71</v>
       </c>
-      <c r="D354" s="4">
+      <c r="D354" s="2">
         <v>58.5</v>
       </c>
-      <c r="E354" s="3">
+      <c r="E354" s="4">
         <v>85</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A355" s="2">
+      <c r="A355" s="6">
         <v>114.44988258508785</v>
       </c>
       <c r="B355" s="3">
         <v>105.2</v>
       </c>
-      <c r="C355" s="3">
+      <c r="C355" s="4">
         <v>62</v>
       </c>
-      <c r="D355" s="4">
+      <c r="D355" s="2">
         <v>72</v>
       </c>
-      <c r="E355" s="3">
+      <c r="E355" s="4">
         <v>83.333333333333329</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A356" s="2">
+      <c r="A356" s="6">
         <v>113.30820939537051</v>
       </c>
       <c r="B356" s="3">
         <v>103.1</v>
       </c>
-      <c r="C356" s="3">
+      <c r="C356" s="4">
         <v>61</v>
       </c>
-      <c r="D356" s="4">
+      <c r="D356" s="2">
         <v>74</v>
       </c>
-      <c r="E356" s="3">
+      <c r="E356" s="4">
         <v>81.666666666666657</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A357" s="2">
+      <c r="A357" s="6">
         <v>112.16653620565317</v>
       </c>
       <c r="B357" s="3">
         <v>101</v>
       </c>
-      <c r="C357" s="3">
+      <c r="C357" s="4">
         <v>60</v>
       </c>
-      <c r="D357" s="4">
+      <c r="D357" s="2">
         <v>76</v>
       </c>
-      <c r="E357" s="3">
+      <c r="E357" s="4">
         <v>80</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A358" s="2">
+      <c r="A358" s="6">
         <v>111.02486301593584</v>
       </c>
       <c r="B358" s="3">
         <v>112</v>
       </c>
-      <c r="C358" s="3">
+      <c r="C358" s="4">
         <v>58.5</v>
       </c>
-      <c r="D358" s="4">
+      <c r="D358" s="2">
         <v>71.666666666666671</v>
       </c>
-      <c r="E358" s="3">
+      <c r="E358" s="4">
         <v>81.666666666666671</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A359" s="2">
+      <c r="A359" s="6">
         <v>109.88318982621848</v>
       </c>
       <c r="B359" s="3">
         <v>123</v>
       </c>
-      <c r="C359" s="3">
+      <c r="C359" s="4">
         <v>57</v>
       </c>
-      <c r="D359" s="4">
+      <c r="D359" s="2">
         <v>67.333333333333329</v>
       </c>
-      <c r="E359" s="3">
+      <c r="E359" s="4">
         <v>83.333333333333343</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A360" s="2">
+      <c r="A360" s="6">
         <v>108.74151663650115</v>
       </c>
       <c r="B360" s="3">
         <v>123.85714285714286</v>
       </c>
-      <c r="C360" s="3">
+      <c r="C360" s="4">
         <v>57.5</v>
       </c>
-      <c r="D360" s="4">
+      <c r="D360" s="2">
         <v>63</v>
       </c>
-      <c r="E360" s="3">
+      <c r="E360" s="4">
         <v>85</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A361" s="2">
+      <c r="A361" s="6">
         <v>107.59984344678381</v>
       </c>
       <c r="B361" s="3">
         <v>124.71428571428571</v>
       </c>
-      <c r="C361" s="3">
+      <c r="C361" s="4">
         <v>58</v>
       </c>
-      <c r="D361" s="4">
+      <c r="D361" s="2">
         <v>62.5</v>
       </c>
-      <c r="E361" s="3">
+      <c r="E361" s="4">
         <v>89</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A362" s="2">
+      <c r="A362" s="6">
         <v>106.45817025706646</v>
       </c>
       <c r="B362" s="3">
         <v>125.57142857142857</v>
       </c>
-      <c r="C362" s="3">
+      <c r="C362" s="4">
         <v>54</v>
       </c>
-      <c r="D362" s="4">
+      <c r="D362" s="2">
         <v>62</v>
       </c>
-      <c r="E362" s="3">
+      <c r="E362" s="4">
         <v>93</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A363" s="2">
+      <c r="A363" s="6">
         <v>105.31649706734912</v>
       </c>
       <c r="B363" s="3">
         <v>126.42857142857143</v>
       </c>
-      <c r="C363" s="3">
+      <c r="C363" s="4">
         <v>50</v>
       </c>
-      <c r="D363" s="4">
+      <c r="D363" s="2">
         <v>64.75</v>
       </c>
-      <c r="E363" s="3">
+      <c r="E363" s="4">
         <v>97</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A364" s="2">
+      <c r="A364" s="6">
         <v>104.17482387763178</v>
       </c>
       <c r="B364" s="3">
         <v>127.28571428571429</v>
       </c>
-      <c r="C364" s="3">
+      <c r="C364" s="4">
         <v>46</v>
       </c>
-      <c r="D364" s="4">
+      <c r="D364" s="2">
         <v>67.5</v>
       </c>
-      <c r="E364" s="3">
+      <c r="E364" s="4">
         <v>101</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A365" s="2">
+      <c r="A365" s="6">
         <v>103.03315068791443</v>
       </c>
       <c r="B365" s="3">
         <v>128.14285714285714</v>
       </c>
-      <c r="C365" s="3">
+      <c r="C365" s="4">
         <v>42</v>
       </c>
-      <c r="D365" s="4">
+      <c r="D365" s="2">
         <v>70.25</v>
       </c>
-      <c r="E365" s="3">
+      <c r="E365" s="4">
         <v>98.142857142857167</v>
       </c>
     </row>
